--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_16_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_16_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>253484.1076103211</v>
+        <v>244118.0609777602</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24744421.74528887</v>
+        <v>24744421.74528888</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4277952.734364989</v>
+        <v>4277952.734364988</v>
       </c>
     </row>
     <row r="11">
@@ -1135,16 +1135,16 @@
         <v>1.847726076095356</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>1.627477127824789</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.847726076095356</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>1.847726076095356</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1.627477127824789</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.847726076095356</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1.627477127824789</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.847726076095356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1341,19 +1341,19 @@
         <v>1.627477127824789</v>
       </c>
       <c r="S10" t="n">
-        <v>1.847726076095356</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>1.847726076095356</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>1.847726076095356</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.847726076095356</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.847726076095356</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,73 +1372,73 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>246.8546383131845</v>
       </c>
-      <c r="D11" t="n">
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>100.2138644262831</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>246.8546383131845</v>
       </c>
-      <c r="E11" t="n">
+      <c r="W11" t="n">
+        <v>117.2157009999698</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>246.8546383131845</v>
-      </c>
-      <c r="F11" t="n">
-        <v>217.4295654262528</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,16 +1448,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>107.8702810193205</v>
@@ -1466,7 +1466,7 @@
         <v>105.1286023732147</v>
       </c>
       <c r="H12" t="n">
-        <v>62.394462647496</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>195.3252232014799</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X12" t="n">
-        <v>18.22099738779562</v>
+        <v>126.9941254538601</v>
       </c>
       <c r="Y12" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>144.3395671777653</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.9142286143894</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.210852813166</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>170.6821790970537</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>246.8546383131845</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>246.8546383131845</v>
+        <v>217.4295654262527</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>246.8546383131844</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>246.8546383131844</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>246.8546383131844</v>
       </c>
       <c r="X14" t="n">
-        <v>217.4295654262527</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>246.8546383131845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,13 +1688,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D15" t="n">
         <v>115.7281862028015</v>
       </c>
       <c r="E15" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>107.8702810193205</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>58.26839394180143</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1739,16 +1739,16 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>154.5577046417164</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>128.1787585720683</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X15" t="n">
         <v>174.5627220424961</v>
@@ -1767,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>140.068268144684</v>
       </c>
       <c r="E16" t="n">
         <v>159.3017069803637</v>
@@ -1782,10 +1782,10 @@
         <v>164.9142286143894</v>
       </c>
       <c r="H16" t="n">
-        <v>142.210852813166</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>95.22456288072436</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.57948945999399</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>172.3802009032683</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>246.8546383131844</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>246.8546383131844</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>246.8546383131845</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>188.9802411408581</v>
       </c>
       <c r="D17" t="n">
-        <v>217.4295654262528</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1861,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>246.8546383131844</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>28.44932428539457</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>246.8546383131845</v>
+        <v>246.8546383131844</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>246.8546383131845</v>
+        <v>246.8546383131844</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1931,10 +1931,10 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E18" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>107.8702810193205</v>
+        <v>87.21891907384042</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1973,25 +1973,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>92.20631636151205</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>154.5577046417164</v>
       </c>
       <c r="U18" t="n">
-        <v>192.4318769781581</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W18" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="19">
@@ -2004,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>135.4627299086509</v>
+        <v>164.9142286143894</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.210852813166</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>22.22371201957954</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>172.9620919020575</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>246.8546383131844</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>246.8546383131844</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>246.8546383131844</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>246.8546383131845</v>
+        <v>246.8546383131844</v>
       </c>
       <c r="F20" t="n">
-        <v>246.8546383131845</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>246.8546383131845</v>
+        <v>117.2157009999696</v>
       </c>
       <c r="H20" t="n">
-        <v>88.76637671457515</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>28.44932428539456</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2159,19 +2159,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>75.55236981916858</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2210,10 +2210,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>10.87258216218284</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>154.5577046417164</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>195.3252232014799</v>
@@ -2222,10 +2222,10 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W21" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.9142286143894</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.210852813166</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>95.22456288072436</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>54.57948945999399</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>234.3176196495956</v>
       </c>
       <c r="U22" t="n">
-        <v>183.8629413868498</v>
+        <v>18.37245725898957</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>246.8546383131844</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>34.2696144836212</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>215.8208927368038</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>396.9273063213908</v>
@@ -2456,7 +2456,7 @@
         <v>195.2954114342289</v>
       </c>
       <c r="V24" t="n">
-        <v>211.574411736897</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W24" t="n">
         <v>211.1008365810345</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>164.5343322142292</v>
@@ -2496,7 +2496,7 @@
         <v>138.8332284553781</v>
       </c>
       <c r="I25" t="n">
-        <v>83.80004204681615</v>
+        <v>28.91157342683339</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U25" t="n">
         <v>279.9132448002744</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>3.076075707857706</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2560,19 +2560,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>279.074533248695</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U26" t="n">
         <v>254.3037726831681</v>
@@ -2617,13 +2617,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>166.1920080638393</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -2639,7 +2639,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D27" t="n">
-        <v>115.7281862028015</v>
+        <v>115.7281862028016</v>
       </c>
       <c r="E27" t="n">
         <v>119.2878878475953</v>
@@ -2651,7 +2651,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H27" t="n">
-        <v>58.01809521505087</v>
+        <v>58.01809521505031</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2718,22 +2718,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>81.30430253225558</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>83.80004204681615</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>44.57962096112468</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>328.6422157026746</v>
+        <v>236.1349044692212</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2803,13 +2803,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2879,7 +2879,7 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E30" t="n">
-        <v>119.2878878475953</v>
+        <v>119.2878878475954</v>
       </c>
       <c r="F30" t="n">
         <v>107.8702810193205</v>
@@ -2924,7 +2924,7 @@
         <v>83.78946074098184</v>
       </c>
       <c r="T30" t="n">
-        <v>152.731237034806</v>
+        <v>152.7312370348056</v>
       </c>
       <c r="U30" t="n">
         <v>195.2954114342289</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>83.80004204681615</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>37.4979658673368</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>130.872376290828</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>113.0025826920886</v>
       </c>
     </row>
     <row r="32">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>399.4469728874824</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3082,13 +3082,13 @@
         <v>80.91481491188679</v>
       </c>
       <c r="T32" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>254.3037726831681</v>
       </c>
       <c r="V32" t="n">
-        <v>206.4163792841297</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5343322142292</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I34" t="n">
-        <v>83.80004204681615</v>
+        <v>40.39431391041497</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>37.4979658673368</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T34" t="n">
         <v>232.6944259398202</v>
@@ -3246,16 +3246,16 @@
         <v>279.9132448002744</v>
       </c>
       <c r="V34" t="n">
-        <v>188.9183175667614</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3271,10 +3271,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>343.4158648255443</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>85.27719315195229</v>
       </c>
     </row>
     <row r="36">
@@ -3398,7 +3398,7 @@
         <v>83.78946074098184</v>
       </c>
       <c r="T36" t="n">
-        <v>152.7312370348056</v>
+        <v>152.731237034806</v>
       </c>
       <c r="U36" t="n">
         <v>195.2954114342289</v>
@@ -3426,13 +3426,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>62.7474538586994</v>
+        <v>93.35052185511449</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>83.80004204681615</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>37.4979658673368</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T37" t="n">
         <v>232.6944259398202</v>
@@ -3492,7 +3492,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>144.3385853600931</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>324.8378223519651</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3593,7 +3593,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F39" t="n">
-        <v>107.8702810193205</v>
+        <v>107.8702810193206</v>
       </c>
       <c r="G39" t="n">
         <v>104.6754635109996</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>83.78946074098174</v>
+        <v>83.78946074098184</v>
       </c>
       <c r="T39" t="n">
         <v>152.7312370348056</v>
@@ -3666,13 +3666,13 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>1.704100982850943</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>164.5343322142292</v>
@@ -3723,13 +3723,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>33.75727250678089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>402.3145745171349</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U41" t="n">
         <v>254.3037726831681</v>
       </c>
       <c r="V41" t="n">
-        <v>74.24281993152427</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>332.2702229589415</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>83.78946074098174</v>
+        <v>83.78946074098218</v>
       </c>
       <c r="T42" t="n">
         <v>152.7312370348056</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>37.4979658673368</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>166.3415337283568</v>
+        <v>6.34207328695089</v>
       </c>
       <c r="T43" t="n">
         <v>232.6944259398202</v>
@@ -3957,7 +3957,7 @@
         <v>279.9132448002744</v>
       </c>
       <c r="V43" t="n">
-        <v>210.8136246464836</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3991,7 +3991,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>324.8378223519649</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>115.0373362329333</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H45" t="n">
-        <v>58.01809521505031</v>
+        <v>58.0180952150503</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>83.78946074098184</v>
       </c>
       <c r="T45" t="n">
-        <v>152.7312370348056</v>
+        <v>152.7312370348062</v>
       </c>
       <c r="U45" t="n">
         <v>195.2954114342289</v>
@@ -4137,13 +4137,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>138.8332284553781</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>83.80004204681615</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T46" t="n">
-        <v>232.6944259398202</v>
+        <v>128.7832509966152</v>
       </c>
       <c r="U46" t="n">
-        <v>185.2345706161331</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -4783,13 +4783,13 @@
         <v>1.791734376819739</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1478180860876284</v>
+        <v>1.791734376819739</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1478180860876284</v>
+        <v>1.791734376819739</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1478180860876284</v>
+        <v>1.791734376819739</v>
       </c>
       <c r="F8" t="n">
         <v>0.1478180860876284</v>
@@ -4807,25 +4807,25 @@
         <v>1.97706690142203</v>
       </c>
       <c r="K8" t="n">
-        <v>1.97706690142203</v>
+        <v>3.806315716756433</v>
       </c>
       <c r="L8" t="n">
-        <v>1.97706690142203</v>
+        <v>3.806315716756433</v>
       </c>
       <c r="M8" t="n">
-        <v>1.97706690142203</v>
+        <v>3.806315716756433</v>
       </c>
       <c r="N8" t="n">
-        <v>3.806315716756433</v>
+        <v>5.635564532090834</v>
       </c>
       <c r="O8" t="n">
-        <v>5.56165548904702</v>
+        <v>5.635564532090834</v>
       </c>
       <c r="P8" t="n">
-        <v>5.56165548904702</v>
+        <v>5.635564532090834</v>
       </c>
       <c r="Q8" t="n">
-        <v>5.56165548904702</v>
+        <v>7.390904304381422</v>
       </c>
       <c r="R8" t="n">
         <v>7.390904304381422</v>
@@ -4837,13 +4837,13 @@
         <v>5.524514328527528</v>
       </c>
       <c r="U8" t="n">
-        <v>5.524514328527528</v>
+        <v>3.658124352673633</v>
       </c>
       <c r="V8" t="n">
-        <v>5.524514328527528</v>
+        <v>3.658124352673633</v>
       </c>
       <c r="W8" t="n">
-        <v>5.524514328527528</v>
+        <v>3.658124352673633</v>
       </c>
       <c r="X8" t="n">
         <v>3.658124352673633</v>
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1478180860876284</v>
+        <v>3.658124352673633</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1478180860876284</v>
+        <v>3.658124352673633</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1478180860876284</v>
+        <v>2.014208061941523</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1478180860876284</v>
+        <v>2.014208061941523</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1478180860876284</v>
+        <v>2.014208061941523</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1478180860876284</v>
+        <v>2.014208061941523</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1478180860876284</v>
+        <v>2.014208061941523</v>
       </c>
       <c r="I9" t="n">
         <v>0.1478180860876284</v>
@@ -4892,10 +4892,10 @@
         <v>1.97706690142203</v>
       </c>
       <c r="M9" t="n">
-        <v>3.806315716756433</v>
+        <v>3.732406673712618</v>
       </c>
       <c r="N9" t="n">
-        <v>5.635564532090834</v>
+        <v>5.56165548904702</v>
       </c>
       <c r="O9" t="n">
         <v>7.390904304381422</v>
@@ -4913,22 +4913,22 @@
         <v>7.390904304381422</v>
       </c>
       <c r="T9" t="n">
-        <v>5.746988013649312</v>
+        <v>7.390904304381422</v>
       </c>
       <c r="U9" t="n">
-        <v>5.746988013649312</v>
+        <v>7.390904304381422</v>
       </c>
       <c r="V9" t="n">
-        <v>3.880598037795417</v>
+        <v>5.524514328527528</v>
       </c>
       <c r="W9" t="n">
-        <v>2.014208061941523</v>
+        <v>3.658124352673633</v>
       </c>
       <c r="X9" t="n">
-        <v>2.014208061941523</v>
+        <v>3.658124352673633</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1478180860876284</v>
+        <v>3.658124352673633</v>
       </c>
     </row>
     <row r="10">
@@ -4962,25 +4962,25 @@
         <v>0.1478180860876284</v>
       </c>
       <c r="J10" t="n">
-        <v>1.903157858378216</v>
+        <v>1.97706690142203</v>
       </c>
       <c r="K10" t="n">
-        <v>3.732406673712618</v>
+        <v>3.806315716756433</v>
       </c>
       <c r="L10" t="n">
-        <v>3.732406673712618</v>
+        <v>5.635564532090834</v>
       </c>
       <c r="M10" t="n">
-        <v>3.732406673712618</v>
+        <v>5.635564532090834</v>
       </c>
       <c r="N10" t="n">
-        <v>3.732406673712618</v>
+        <v>7.390904304381422</v>
       </c>
       <c r="O10" t="n">
-        <v>5.56165548904702</v>
+        <v>7.390904304381422</v>
       </c>
       <c r="P10" t="n">
-        <v>5.56165548904702</v>
+        <v>7.390904304381422</v>
       </c>
       <c r="Q10" t="n">
         <v>7.390904304381422</v>
@@ -4989,16 +4989,16 @@
         <v>5.746988013649312</v>
       </c>
       <c r="S10" t="n">
+        <v>5.746988013649312</v>
+      </c>
+      <c r="T10" t="n">
+        <v>5.746988013649312</v>
+      </c>
+      <c r="U10" t="n">
         <v>3.880598037795417</v>
       </c>
-      <c r="T10" t="n">
+      <c r="V10" t="n">
         <v>2.014208061941523</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0.1478180860876284</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0.1478180860876284</v>
       </c>
       <c r="W10" t="n">
         <v>0.1478180860876284</v>
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>987.4185532527381</v>
+        <v>269.0964905733219</v>
       </c>
       <c r="C11" t="n">
-        <v>738.0704337444708</v>
+        <v>269.0964905733219</v>
       </c>
       <c r="D11" t="n">
-        <v>488.7223142362036</v>
+        <v>269.0964905733219</v>
       </c>
       <c r="E11" t="n">
-        <v>239.3741947279364</v>
+        <v>269.0964905733219</v>
       </c>
       <c r="F11" t="n">
         <v>19.74837106505476</v>
@@ -5041,52 +5041,52 @@
         <v>19.74837106505476</v>
       </c>
       <c r="J11" t="n">
-        <v>71.47410489337322</v>
+        <v>71.47410489337346</v>
       </c>
       <c r="K11" t="n">
-        <v>169.5466712783939</v>
+        <v>169.5466712783942</v>
       </c>
       <c r="L11" t="n">
-        <v>306.159575601015</v>
+        <v>306.1595756010151</v>
       </c>
       <c r="M11" t="n">
         <v>470.9938763134064</v>
       </c>
       <c r="N11" t="n">
-        <v>640.3639607337075</v>
+        <v>640.3639607337074</v>
       </c>
       <c r="O11" t="n">
-        <v>794.8945478764314</v>
+        <v>794.8945478764311</v>
       </c>
       <c r="P11" t="n">
-        <v>912.8099234633804</v>
+        <v>912.8099234633801</v>
       </c>
       <c r="Q11" t="n">
-        <v>981.8494974512191</v>
+        <v>981.8494974512188</v>
       </c>
       <c r="R11" t="n">
-        <v>987.4185532527381</v>
+        <v>987.4185532527379</v>
       </c>
       <c r="S11" t="n">
-        <v>987.4185532527381</v>
+        <v>886.1924275696236</v>
       </c>
       <c r="T11" t="n">
-        <v>987.4185532527381</v>
+        <v>886.1924275696236</v>
       </c>
       <c r="U11" t="n">
-        <v>987.4185532527381</v>
+        <v>886.1924275696236</v>
       </c>
       <c r="V11" t="n">
-        <v>987.4185532527381</v>
+        <v>636.8443080613565</v>
       </c>
       <c r="W11" t="n">
-        <v>987.4185532527381</v>
+        <v>518.4446100815891</v>
       </c>
       <c r="X11" t="n">
-        <v>987.4185532527381</v>
+        <v>518.4446100815891</v>
       </c>
       <c r="Y11" t="n">
-        <v>987.4185532527381</v>
+        <v>269.0964905733219</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>669.3085131145212</v>
+        <v>234.8987583302418</v>
       </c>
       <c r="C12" t="n">
-        <v>535.3134418634669</v>
+        <v>234.8987583302418</v>
       </c>
       <c r="D12" t="n">
-        <v>418.4162840828593</v>
+        <v>234.8987583302418</v>
       </c>
       <c r="E12" t="n">
-        <v>297.9234680751873</v>
+        <v>234.8987583302418</v>
       </c>
       <c r="F12" t="n">
-        <v>188.9635882576919</v>
+        <v>125.9388785127464</v>
       </c>
       <c r="G12" t="n">
-        <v>82.77308081000021</v>
+        <v>19.74837106505476</v>
       </c>
       <c r="H12" t="n">
         <v>19.74837106505476</v>
@@ -5120,52 +5120,52 @@
         <v>19.74837106505476</v>
       </c>
       <c r="J12" t="n">
-        <v>42.93463575886755</v>
+        <v>161.43395036047</v>
       </c>
       <c r="K12" t="n">
-        <v>114.2163591880929</v>
+        <v>232.7156737896954</v>
       </c>
       <c r="L12" t="n">
-        <v>228.824062217565</v>
+        <v>347.3233768191675</v>
       </c>
       <c r="M12" t="n">
-        <v>370.4053775666039</v>
+        <v>488.9046921682063</v>
       </c>
       <c r="N12" t="n">
-        <v>521.5694302354574</v>
+        <v>640.0687448370597</v>
       </c>
       <c r="O12" t="n">
-        <v>650.8559890771739</v>
+        <v>769.3553036787763</v>
       </c>
       <c r="P12" t="n">
-        <v>746.7899588234919</v>
+        <v>865.2892734250943</v>
       </c>
       <c r="Q12" t="n">
-        <v>987.4185532527381</v>
+        <v>909.2013170703741</v>
       </c>
       <c r="R12" t="n">
-        <v>987.4185532527381</v>
+        <v>987.4185532527379</v>
       </c>
       <c r="S12" t="n">
-        <v>987.4185532527381</v>
+        <v>987.4185532527379</v>
       </c>
       <c r="T12" t="n">
-        <v>987.4185532527381</v>
+        <v>987.4185532527379</v>
       </c>
       <c r="U12" t="n">
-        <v>987.4185532527381</v>
+        <v>790.1203479987178</v>
       </c>
       <c r="V12" t="n">
-        <v>987.4185532527381</v>
+        <v>576.4088209917516</v>
       </c>
       <c r="W12" t="n">
-        <v>987.4185532527381</v>
+        <v>363.1756527280803</v>
       </c>
       <c r="X12" t="n">
-        <v>969.0135053862779</v>
+        <v>234.8987583302418</v>
       </c>
       <c r="Y12" t="n">
-        <v>809.6115457501079</v>
+        <v>234.8987583302418</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>815.0123117405626</v>
+        <v>336.6392861071416</v>
       </c>
       <c r="C13" t="n">
-        <v>815.0123117405626</v>
+        <v>165.5459136688581</v>
       </c>
       <c r="D13" t="n">
-        <v>655.5176670634727</v>
+        <v>165.5459136688581</v>
       </c>
       <c r="E13" t="n">
-        <v>494.6068519317922</v>
+        <v>19.74837106505476</v>
       </c>
       <c r="F13" t="n">
-        <v>329.9757260423834</v>
+        <v>19.74837106505476</v>
       </c>
       <c r="G13" t="n">
-        <v>163.3956971389598</v>
+        <v>19.74837106505476</v>
       </c>
       <c r="H13" t="n">
         <v>19.74837106505476</v>
@@ -5202,49 +5202,49 @@
         <v>80.28237331300286</v>
       </c>
       <c r="K13" t="n">
-        <v>104.8885137926135</v>
+        <v>311.1687073783277</v>
       </c>
       <c r="L13" t="n">
-        <v>349.2746057226663</v>
+        <v>555.5547993083803</v>
       </c>
       <c r="M13" t="n">
-        <v>560.8931055701474</v>
+        <v>799.940891238433</v>
       </c>
       <c r="N13" t="n">
-        <v>805.2791975002001</v>
+        <v>925.8238573830059</v>
       </c>
       <c r="O13" t="n">
-        <v>842.6321165317455</v>
+        <v>963.1767764145513</v>
       </c>
       <c r="P13" t="n">
-        <v>866.873893369932</v>
+        <v>987.4185532527379</v>
       </c>
       <c r="Q13" t="n">
-        <v>987.4185532527381</v>
+        <v>987.4185532527379</v>
       </c>
       <c r="R13" t="n">
-        <v>987.4185532527381</v>
+        <v>987.4185532527379</v>
       </c>
       <c r="S13" t="n">
-        <v>987.4185532527381</v>
+        <v>987.4185532527379</v>
       </c>
       <c r="T13" t="n">
-        <v>987.4185532527381</v>
+        <v>987.4185532527379</v>
       </c>
       <c r="U13" t="n">
-        <v>987.4185532527381</v>
+        <v>987.4185532527379</v>
       </c>
       <c r="V13" t="n">
-        <v>815.0123117405626</v>
+        <v>987.4185532527379</v>
       </c>
       <c r="W13" t="n">
-        <v>815.0123117405626</v>
+        <v>987.4185532527379</v>
       </c>
       <c r="X13" t="n">
-        <v>815.0123117405626</v>
+        <v>749.0746911124213</v>
       </c>
       <c r="Y13" t="n">
-        <v>815.0123117405626</v>
+        <v>524.338992501186</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>269.0964905733219</v>
+        <v>738.0704337444705</v>
       </c>
       <c r="C14" t="n">
-        <v>19.74837106505476</v>
+        <v>518.444610081589</v>
       </c>
       <c r="D14" t="n">
-        <v>19.74837106505476</v>
+        <v>518.444610081589</v>
       </c>
       <c r="E14" t="n">
-        <v>19.74837106505476</v>
+        <v>269.0964905733218</v>
       </c>
       <c r="F14" t="n">
-        <v>19.74837106505476</v>
+        <v>19.74837106505475</v>
       </c>
       <c r="G14" t="n">
-        <v>19.74837106505476</v>
+        <v>19.74837106505475</v>
       </c>
       <c r="H14" t="n">
-        <v>19.74837106505476</v>
+        <v>19.74837106505475</v>
       </c>
       <c r="I14" t="n">
-        <v>19.74837106505476</v>
+        <v>19.74837106505475</v>
       </c>
       <c r="J14" t="n">
-        <v>71.47410489337346</v>
+        <v>71.47410489337358</v>
       </c>
       <c r="K14" t="n">
-        <v>169.546671278394</v>
+        <v>169.5466712783943</v>
       </c>
       <c r="L14" t="n">
-        <v>306.1595756010148</v>
+        <v>306.1595756010151</v>
       </c>
       <c r="M14" t="n">
-        <v>470.9938763134063</v>
+        <v>470.9938763134065</v>
       </c>
       <c r="N14" t="n">
-        <v>640.3639607337072</v>
+        <v>640.3639607337075</v>
       </c>
       <c r="O14" t="n">
         <v>794.8945478764311</v>
@@ -5299,31 +5299,31 @@
         <v>912.8099234633801</v>
       </c>
       <c r="Q14" t="n">
-        <v>981.849497451219</v>
+        <v>981.8494974512187</v>
       </c>
       <c r="R14" t="n">
-        <v>987.418553252738</v>
+        <v>987.4185532527376</v>
       </c>
       <c r="S14" t="n">
-        <v>987.418553252738</v>
+        <v>987.4185532527376</v>
       </c>
       <c r="T14" t="n">
-        <v>987.418553252738</v>
+        <v>987.4185532527376</v>
       </c>
       <c r="U14" t="n">
-        <v>987.418553252738</v>
+        <v>987.4185532527376</v>
       </c>
       <c r="V14" t="n">
-        <v>987.418553252738</v>
+        <v>987.4185532527376</v>
       </c>
       <c r="W14" t="n">
-        <v>987.418553252738</v>
+        <v>738.0704337444705</v>
       </c>
       <c r="X14" t="n">
-        <v>767.7927295898564</v>
+        <v>738.0704337444705</v>
       </c>
       <c r="Y14" t="n">
-        <v>518.4446100815892</v>
+        <v>738.0704337444705</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>366.0982246708298</v>
+        <v>438.4574434917893</v>
       </c>
       <c r="C15" t="n">
-        <v>366.0982246708298</v>
+        <v>304.462372240735</v>
       </c>
       <c r="D15" t="n">
-        <v>249.2010668902222</v>
+        <v>187.5652144601274</v>
       </c>
       <c r="E15" t="n">
-        <v>128.7082508825502</v>
+        <v>187.5652144601274</v>
       </c>
       <c r="F15" t="n">
-        <v>19.74837106505476</v>
+        <v>78.60533464263196</v>
       </c>
       <c r="G15" t="n">
-        <v>19.74837106505476</v>
+        <v>78.60533464263196</v>
       </c>
       <c r="H15" t="n">
-        <v>19.74837106505476</v>
+        <v>19.74837106505475</v>
       </c>
       <c r="I15" t="n">
-        <v>19.74837106505476</v>
+        <v>26.39509238099927</v>
       </c>
       <c r="J15" t="n">
-        <v>91.19906435909917</v>
+        <v>239.6511865428336</v>
       </c>
       <c r="K15" t="n">
-        <v>162.4807877883245</v>
+        <v>310.932909972059</v>
       </c>
       <c r="L15" t="n">
-        <v>277.0884908177966</v>
+        <v>425.540613001531</v>
       </c>
       <c r="M15" t="n">
-        <v>418.6698061668355</v>
+        <v>567.1219283505699</v>
       </c>
       <c r="N15" t="n">
-        <v>569.8338588356889</v>
+        <v>718.2859810194233</v>
       </c>
       <c r="O15" t="n">
-        <v>699.1204176774055</v>
+        <v>847.5725398611398</v>
       </c>
       <c r="P15" t="n">
-        <v>943.5065096074582</v>
+        <v>943.5065096074578</v>
       </c>
       <c r="Q15" t="n">
-        <v>987.418553252738</v>
+        <v>987.4185532527376</v>
       </c>
       <c r="R15" t="n">
-        <v>987.418553252738</v>
+        <v>987.4185532527376</v>
       </c>
       <c r="S15" t="n">
-        <v>987.418553252738</v>
+        <v>987.4185532527376</v>
       </c>
       <c r="T15" t="n">
-        <v>831.2996596752466</v>
+        <v>987.4185532527376</v>
       </c>
       <c r="U15" t="n">
-        <v>701.826166168107</v>
+        <v>987.4185532527376</v>
       </c>
       <c r="V15" t="n">
-        <v>701.826166168107</v>
+        <v>987.4185532527376</v>
       </c>
       <c r="W15" t="n">
-        <v>701.826166168107</v>
+        <v>774.1853849890664</v>
       </c>
       <c r="X15" t="n">
-        <v>525.5001843069997</v>
+        <v>597.8594031279592</v>
       </c>
       <c r="Y15" t="n">
-        <v>366.0982246708298</v>
+        <v>438.4574434917893</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>758.1663407645942</v>
+        <v>488.7223142362034</v>
       </c>
       <c r="C16" t="n">
-        <v>587.0729683263107</v>
+        <v>488.7223142362034</v>
       </c>
       <c r="D16" t="n">
-        <v>587.0729683263107</v>
+        <v>347.239215100159</v>
       </c>
       <c r="E16" t="n">
-        <v>426.1621531946303</v>
+        <v>186.3283999684784</v>
       </c>
       <c r="F16" t="n">
-        <v>426.1621531946303</v>
+        <v>186.3283999684784</v>
       </c>
       <c r="G16" t="n">
-        <v>259.5821242912066</v>
+        <v>19.74837106505475</v>
       </c>
       <c r="H16" t="n">
-        <v>115.9347982173016</v>
+        <v>19.74837106505475</v>
       </c>
       <c r="I16" t="n">
-        <v>19.74837106505476</v>
+        <v>19.74837106505475</v>
       </c>
       <c r="J16" t="n">
-        <v>80.28237331300286</v>
+        <v>80.28237331300285</v>
       </c>
       <c r="K16" t="n">
-        <v>311.1687073783277</v>
+        <v>104.8885137926135</v>
       </c>
       <c r="L16" t="n">
-        <v>354.7679436639632</v>
+        <v>148.487750078249</v>
       </c>
       <c r="M16" t="n">
-        <v>402.0568298838991</v>
+        <v>392.8738420083016</v>
       </c>
       <c r="N16" t="n">
-        <v>498.6463693926327</v>
+        <v>598.2460246016925</v>
       </c>
       <c r="O16" t="n">
-        <v>743.0324613226853</v>
+        <v>842.6321165317451</v>
       </c>
       <c r="P16" t="n">
-        <v>987.418553252738</v>
+        <v>866.8738933699316</v>
       </c>
       <c r="Q16" t="n">
-        <v>987.418553252738</v>
+        <v>987.4185532527376</v>
       </c>
       <c r="R16" t="n">
-        <v>932.2877558184006</v>
+        <v>987.4185532527376</v>
       </c>
       <c r="S16" t="n">
-        <v>932.2877558184006</v>
+        <v>987.4185532527376</v>
       </c>
       <c r="T16" t="n">
-        <v>758.1663407645942</v>
+        <v>987.4185532527376</v>
       </c>
       <c r="U16" t="n">
-        <v>758.1663407645942</v>
+        <v>738.0704337444705</v>
       </c>
       <c r="V16" t="n">
-        <v>758.1663407645942</v>
+        <v>738.0704337444705</v>
       </c>
       <c r="W16" t="n">
-        <v>758.1663407645942</v>
+        <v>488.7223142362034</v>
       </c>
       <c r="X16" t="n">
-        <v>758.1663407645942</v>
+        <v>488.7223142362034</v>
       </c>
       <c r="Y16" t="n">
-        <v>758.1663407645942</v>
+        <v>488.7223142362034</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>239.3741947279364</v>
+        <v>488.7223142362034</v>
       </c>
       <c r="C17" t="n">
-        <v>239.3741947279364</v>
+        <v>297.8331817706901</v>
       </c>
       <c r="D17" t="n">
-        <v>19.74837106505476</v>
+        <v>297.8331817706901</v>
       </c>
       <c r="E17" t="n">
-        <v>19.74837106505476</v>
+        <v>297.8331817706901</v>
       </c>
       <c r="F17" t="n">
-        <v>19.74837106505476</v>
+        <v>297.8331817706901</v>
       </c>
       <c r="G17" t="n">
-        <v>19.74837106505476</v>
+        <v>297.8331817706901</v>
       </c>
       <c r="H17" t="n">
-        <v>19.74837106505476</v>
+        <v>48.485062262423</v>
       </c>
       <c r="I17" t="n">
-        <v>19.74837106505476</v>
+        <v>19.74837106505475</v>
       </c>
       <c r="J17" t="n">
-        <v>71.47410489337325</v>
+        <v>71.47410489337322</v>
       </c>
       <c r="K17" t="n">
-        <v>169.546671278394</v>
+        <v>169.5466712783939</v>
       </c>
       <c r="L17" t="n">
-        <v>306.1595756010149</v>
+        <v>306.1595756010146</v>
       </c>
       <c r="M17" t="n">
-        <v>470.9938763134064</v>
+        <v>470.993876313406</v>
       </c>
       <c r="N17" t="n">
-        <v>640.3639607337075</v>
+        <v>640.363960733707</v>
       </c>
       <c r="O17" t="n">
-        <v>794.8945478764314</v>
+        <v>794.8945478764309</v>
       </c>
       <c r="P17" t="n">
-        <v>912.8099234633803</v>
+        <v>912.8099234633798</v>
       </c>
       <c r="Q17" t="n">
-        <v>981.8494974512191</v>
+        <v>981.8494974512186</v>
       </c>
       <c r="R17" t="n">
-        <v>987.4185532527381</v>
+        <v>987.4185532527376</v>
       </c>
       <c r="S17" t="n">
-        <v>987.4185532527381</v>
+        <v>987.4185532527376</v>
       </c>
       <c r="T17" t="n">
-        <v>987.4185532527381</v>
+        <v>987.4185532527376</v>
       </c>
       <c r="U17" t="n">
-        <v>738.0704337444708</v>
+        <v>738.0704337444705</v>
       </c>
       <c r="V17" t="n">
-        <v>738.0704337444708</v>
+        <v>738.0704337444705</v>
       </c>
       <c r="W17" t="n">
-        <v>488.7223142362036</v>
+        <v>488.7223142362034</v>
       </c>
       <c r="X17" t="n">
-        <v>488.7223142362036</v>
+        <v>488.7223142362034</v>
       </c>
       <c r="Y17" t="n">
-        <v>488.7223142362036</v>
+        <v>488.7223142362034</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>366.0982246708298</v>
+        <v>224.7454471020668</v>
       </c>
       <c r="C18" t="n">
-        <v>366.0982246708298</v>
+        <v>224.7454471020668</v>
       </c>
       <c r="D18" t="n">
-        <v>249.2010668902222</v>
+        <v>107.8482893214592</v>
       </c>
       <c r="E18" t="n">
-        <v>128.7082508825502</v>
+        <v>107.8482893214592</v>
       </c>
       <c r="F18" t="n">
-        <v>19.74837106505476</v>
+        <v>19.74837106505475</v>
       </c>
       <c r="G18" t="n">
-        <v>19.74837106505476</v>
+        <v>19.74837106505475</v>
       </c>
       <c r="H18" t="n">
-        <v>19.74837106505476</v>
+        <v>19.74837106505475</v>
       </c>
       <c r="I18" t="n">
-        <v>19.74837106505476</v>
+        <v>19.74837106505475</v>
       </c>
       <c r="J18" t="n">
-        <v>239.6511865428338</v>
+        <v>42.93463575886754</v>
       </c>
       <c r="K18" t="n">
-        <v>310.9329099720592</v>
+        <v>114.2163591880929</v>
       </c>
       <c r="L18" t="n">
-        <v>425.5406130015313</v>
+        <v>228.824062217565</v>
       </c>
       <c r="M18" t="n">
-        <v>567.1219283505702</v>
+        <v>370.4053775666039</v>
       </c>
       <c r="N18" t="n">
-        <v>718.2859810194236</v>
+        <v>521.5694302354574</v>
       </c>
       <c r="O18" t="n">
-        <v>847.5725398611403</v>
+        <v>650.8559890771739</v>
       </c>
       <c r="P18" t="n">
-        <v>943.5065096074583</v>
+        <v>746.7899588234919</v>
       </c>
       <c r="Q18" t="n">
-        <v>987.4185532527381</v>
+        <v>987.4185532527376</v>
       </c>
       <c r="R18" t="n">
-        <v>987.4185532527381</v>
+        <v>987.4185532527376</v>
       </c>
       <c r="S18" t="n">
-        <v>987.4185532527381</v>
+        <v>894.280859958281</v>
       </c>
       <c r="T18" t="n">
-        <v>987.4185532527381</v>
+        <v>738.1619663807896</v>
       </c>
       <c r="U18" t="n">
-        <v>793.0429199414673</v>
+        <v>738.1619663807896</v>
       </c>
       <c r="V18" t="n">
-        <v>579.3313929345011</v>
+        <v>524.4504393738234</v>
       </c>
       <c r="W18" t="n">
-        <v>366.0982246708298</v>
+        <v>524.4504393738234</v>
       </c>
       <c r="X18" t="n">
-        <v>366.0982246708298</v>
+        <v>524.4504393738234</v>
       </c>
       <c r="Y18" t="n">
-        <v>366.0982246708298</v>
+        <v>365.0484797376535</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>812.7093695132861</v>
+        <v>513.3347351332352</v>
       </c>
       <c r="C19" t="n">
-        <v>641.6159970750026</v>
+        <v>513.3347351332352</v>
       </c>
       <c r="D19" t="n">
-        <v>482.1213523979126</v>
+        <v>513.3347351332352</v>
       </c>
       <c r="E19" t="n">
-        <v>321.2105372662321</v>
+        <v>352.4239200015547</v>
       </c>
       <c r="F19" t="n">
-        <v>156.5794113768234</v>
+        <v>352.4239200015547</v>
       </c>
       <c r="G19" t="n">
-        <v>19.74837106505476</v>
+        <v>185.843891098131</v>
       </c>
       <c r="H19" t="n">
-        <v>19.74837106505476</v>
+        <v>42.196565024226</v>
       </c>
       <c r="I19" t="n">
-        <v>19.74837106505476</v>
+        <v>19.74837106505475</v>
       </c>
       <c r="J19" t="n">
-        <v>80.28237331300288</v>
+        <v>80.28237331300286</v>
       </c>
       <c r="K19" t="n">
-        <v>186.419264338758</v>
+        <v>311.1687073783277</v>
       </c>
       <c r="L19" t="n">
-        <v>230.0185006243936</v>
+        <v>414.0045641411512</v>
       </c>
       <c r="M19" t="n">
-        <v>474.4045925544463</v>
+        <v>461.2934503610871</v>
       </c>
       <c r="N19" t="n">
-        <v>718.7906844844989</v>
+        <v>705.6795422911397</v>
       </c>
       <c r="O19" t="n">
-        <v>963.1767764145516</v>
+        <v>743.0324613226851</v>
       </c>
       <c r="P19" t="n">
-        <v>987.4185532527381</v>
+        <v>987.4185532527376</v>
       </c>
       <c r="Q19" t="n">
-        <v>987.4185532527381</v>
+        <v>987.4185532527376</v>
       </c>
       <c r="R19" t="n">
-        <v>987.4185532527381</v>
+        <v>987.4185532527376</v>
       </c>
       <c r="S19" t="n">
-        <v>812.7093695132861</v>
+        <v>987.4185532527376</v>
       </c>
       <c r="T19" t="n">
-        <v>812.7093695132861</v>
+        <v>987.4185532527376</v>
       </c>
       <c r="U19" t="n">
-        <v>812.7093695132861</v>
+        <v>738.0704337444705</v>
       </c>
       <c r="V19" t="n">
-        <v>812.7093695132861</v>
+        <v>738.0704337444705</v>
       </c>
       <c r="W19" t="n">
-        <v>812.7093695132861</v>
+        <v>738.0704337444705</v>
       </c>
       <c r="X19" t="n">
-        <v>812.7093695132861</v>
+        <v>738.0704337444705</v>
       </c>
       <c r="Y19" t="n">
-        <v>812.7093695132861</v>
+        <v>513.3347351332352</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>886.1924275696238</v>
+        <v>636.8443080613563</v>
       </c>
       <c r="C20" t="n">
-        <v>886.1924275696238</v>
+        <v>387.4961885530892</v>
       </c>
       <c r="D20" t="n">
-        <v>886.1924275696238</v>
+        <v>387.4961885530892</v>
       </c>
       <c r="E20" t="n">
-        <v>636.8443080613565</v>
+        <v>138.1480690448221</v>
       </c>
       <c r="F20" t="n">
-        <v>387.4961885530893</v>
+        <v>138.1480690448221</v>
       </c>
       <c r="G20" t="n">
-        <v>138.1480690448221</v>
+        <v>19.74837106505475</v>
       </c>
       <c r="H20" t="n">
-        <v>48.485062262423</v>
+        <v>19.74837106505475</v>
       </c>
       <c r="I20" t="n">
-        <v>19.74837106505476</v>
+        <v>19.74837106505475</v>
       </c>
       <c r="J20" t="n">
-        <v>71.47410489337312</v>
+        <v>71.47410489337358</v>
       </c>
       <c r="K20" t="n">
-        <v>169.5466712783939</v>
+        <v>169.5466712783943</v>
       </c>
       <c r="L20" t="n">
-        <v>306.1595756010148</v>
+        <v>306.1595756010151</v>
       </c>
       <c r="M20" t="n">
-        <v>470.9938763134062</v>
+        <v>470.9938763134065</v>
       </c>
       <c r="N20" t="n">
-        <v>640.3639607337072</v>
+        <v>640.3639607337075</v>
       </c>
       <c r="O20" t="n">
         <v>794.8945478764311</v>
@@ -5773,31 +5773,31 @@
         <v>912.8099234633801</v>
       </c>
       <c r="Q20" t="n">
-        <v>981.8494974512189</v>
+        <v>981.8494974512187</v>
       </c>
       <c r="R20" t="n">
-        <v>987.418553252738</v>
+        <v>987.4185532527376</v>
       </c>
       <c r="S20" t="n">
-        <v>886.1924275696238</v>
+        <v>886.1924275696234</v>
       </c>
       <c r="T20" t="n">
-        <v>886.1924275696238</v>
+        <v>886.1924275696234</v>
       </c>
       <c r="U20" t="n">
-        <v>886.1924275696238</v>
+        <v>886.1924275696234</v>
       </c>
       <c r="V20" t="n">
-        <v>886.1924275696238</v>
+        <v>886.1924275696234</v>
       </c>
       <c r="W20" t="n">
-        <v>886.1924275696238</v>
+        <v>886.1924275696234</v>
       </c>
       <c r="X20" t="n">
-        <v>886.1924275696238</v>
+        <v>886.1924275696234</v>
       </c>
       <c r="Y20" t="n">
-        <v>886.1924275696238</v>
+        <v>886.1924275696234</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.74837106505476</v>
+        <v>500.0932959218841</v>
       </c>
       <c r="C21" t="n">
-        <v>19.74837106505476</v>
+        <v>366.0982246708298</v>
       </c>
       <c r="D21" t="n">
-        <v>19.74837106505476</v>
+        <v>249.2010668902222</v>
       </c>
       <c r="E21" t="n">
-        <v>19.74837106505476</v>
+        <v>128.7082508825502</v>
       </c>
       <c r="F21" t="n">
-        <v>19.74837106505476</v>
+        <v>19.74837106505475</v>
       </c>
       <c r="G21" t="n">
-        <v>19.74837106505476</v>
+        <v>19.74837106505475</v>
       </c>
       <c r="H21" t="n">
-        <v>19.74837106505476</v>
+        <v>19.74837106505475</v>
       </c>
       <c r="I21" t="n">
-        <v>19.74837106505476</v>
+        <v>19.74837106505475</v>
       </c>
       <c r="J21" t="n">
-        <v>239.6511865428338</v>
+        <v>239.6511865428336</v>
       </c>
       <c r="K21" t="n">
-        <v>310.9329099720592</v>
+        <v>310.932909972059</v>
       </c>
       <c r="L21" t="n">
-        <v>425.5406130015313</v>
+        <v>425.540613001531</v>
       </c>
       <c r="M21" t="n">
-        <v>567.1219283505702</v>
+        <v>567.1219283505699</v>
       </c>
       <c r="N21" t="n">
-        <v>718.2859810194236</v>
+        <v>718.2859810194233</v>
       </c>
       <c r="O21" t="n">
-        <v>847.5725398611402</v>
+        <v>847.5725398611398</v>
       </c>
       <c r="P21" t="n">
-        <v>943.5065096074582</v>
+        <v>943.5065096074578</v>
       </c>
       <c r="Q21" t="n">
-        <v>987.418553252738</v>
+        <v>987.4185532527376</v>
       </c>
       <c r="R21" t="n">
-        <v>987.418553252738</v>
+        <v>987.4185532527376</v>
       </c>
       <c r="S21" t="n">
-        <v>976.4361470283109</v>
+        <v>987.4185532527376</v>
       </c>
       <c r="T21" t="n">
-        <v>820.3172534508195</v>
+        <v>987.4185532527376</v>
       </c>
       <c r="U21" t="n">
-        <v>623.0190481967994</v>
+        <v>790.1203479987175</v>
       </c>
       <c r="V21" t="n">
-        <v>409.3075211898332</v>
+        <v>576.4088209917513</v>
       </c>
       <c r="W21" t="n">
-        <v>196.074352926162</v>
+        <v>576.4088209917513</v>
       </c>
       <c r="X21" t="n">
-        <v>19.74837106505476</v>
+        <v>576.4088209917513</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.74837106505476</v>
+        <v>576.4088209917513</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>746.5676130034008</v>
+        <v>19.74837106505475</v>
       </c>
       <c r="C22" t="n">
-        <v>746.5676130034008</v>
+        <v>19.74837106505475</v>
       </c>
       <c r="D22" t="n">
-        <v>587.0729683263107</v>
+        <v>19.74837106505475</v>
       </c>
       <c r="E22" t="n">
-        <v>426.1621531946303</v>
+        <v>19.74837106505475</v>
       </c>
       <c r="F22" t="n">
-        <v>426.1621531946303</v>
+        <v>19.74837106505475</v>
       </c>
       <c r="G22" t="n">
-        <v>259.5821242912066</v>
+        <v>19.74837106505475</v>
       </c>
       <c r="H22" t="n">
-        <v>115.9347982173016</v>
+        <v>19.74837106505475</v>
       </c>
       <c r="I22" t="n">
-        <v>19.74837106505476</v>
+        <v>19.74837106505475</v>
       </c>
       <c r="J22" t="n">
-        <v>80.28237331300288</v>
+        <v>19.74837106505475</v>
       </c>
       <c r="K22" t="n">
-        <v>311.1687073783277</v>
+        <v>44.3545115446654</v>
       </c>
       <c r="L22" t="n">
-        <v>488.4992359950053</v>
+        <v>230.0185006243935</v>
       </c>
       <c r="M22" t="n">
-        <v>535.7881222149413</v>
+        <v>474.404592554446</v>
       </c>
       <c r="N22" t="n">
-        <v>585.1348824083339</v>
+        <v>718.7906844844986</v>
       </c>
       <c r="O22" t="n">
-        <v>622.4878014398793</v>
+        <v>963.1767764145511</v>
       </c>
       <c r="P22" t="n">
-        <v>866.8738933699319</v>
+        <v>987.4185532527376</v>
       </c>
       <c r="Q22" t="n">
-        <v>987.418553252738</v>
+        <v>987.4185532527376</v>
       </c>
       <c r="R22" t="n">
-        <v>932.2877558184006</v>
+        <v>987.4185532527376</v>
       </c>
       <c r="S22" t="n">
-        <v>932.2877558184006</v>
+        <v>987.4185532527376</v>
       </c>
       <c r="T22" t="n">
-        <v>932.2877558184006</v>
+        <v>750.7340889602168</v>
       </c>
       <c r="U22" t="n">
-        <v>746.5676130034008</v>
+        <v>732.1760513248738</v>
       </c>
       <c r="V22" t="n">
-        <v>746.5676130034008</v>
+        <v>482.8279318166067</v>
       </c>
       <c r="W22" t="n">
-        <v>746.5676130034008</v>
+        <v>482.8279318166067</v>
       </c>
       <c r="X22" t="n">
-        <v>746.5676130034008</v>
+        <v>244.4840696762901</v>
       </c>
       <c r="Y22" t="n">
-        <v>746.5676130034008</v>
+        <v>19.74837106505475</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>327.3287545781499</v>
+        <v>479.5661390586862</v>
       </c>
       <c r="C23" t="n">
-        <v>327.3287545781499</v>
+        <v>479.5661390586862</v>
       </c>
       <c r="D23" t="n">
-        <v>327.3287545781499</v>
+        <v>75.10220915174671</v>
       </c>
       <c r="E23" t="n">
-        <v>327.3287545781499</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="F23" t="n">
-        <v>327.3287545781499</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="G23" t="n">
-        <v>327.3287545781499</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="H23" t="n">
         <v>40.48643694606873</v>
       </c>
       <c r="I23" t="n">
-        <v>44.64574590746577</v>
+        <v>44.64574590746555</v>
       </c>
       <c r="J23" t="n">
-        <v>167.5334271492902</v>
+        <v>167.5334271492899</v>
       </c>
       <c r="K23" t="n">
-        <v>372.2593058752967</v>
+        <v>372.2593058752966</v>
       </c>
       <c r="L23" t="n">
-        <v>641.185075087908</v>
+        <v>641.1850750879078</v>
       </c>
       <c r="M23" t="n">
-        <v>953.2429319501309</v>
+        <v>953.2429319501307</v>
       </c>
       <c r="N23" t="n">
         <v>1272.218803576257</v>
@@ -6016,25 +6016,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S23" t="n">
-        <v>1942.589711028803</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T23" t="n">
-        <v>1730.670028080286</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="U23" t="n">
-        <v>1512.669126325939</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="V23" t="n">
-        <v>1512.669126325939</v>
+        <v>1674.484292639917</v>
       </c>
       <c r="W23" t="n">
-        <v>1128.908825461107</v>
+        <v>1290.723991775086</v>
       </c>
       <c r="X23" t="n">
-        <v>728.2654276300598</v>
+        <v>1290.723991775086</v>
       </c>
       <c r="Y23" t="n">
-        <v>327.3287545781499</v>
+        <v>889.7873187231756</v>
       </c>
     </row>
     <row r="24">
@@ -6044,64 +6044,64 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>685.1682898090091</v>
+        <v>685.1682898090093</v>
       </c>
       <c r="C24" t="n">
-        <v>551.1732185579548</v>
+        <v>551.173218557955</v>
       </c>
       <c r="D24" t="n">
-        <v>434.2760607773472</v>
+        <v>434.2760607773473</v>
       </c>
       <c r="E24" t="n">
-        <v>313.7832447696752</v>
+        <v>313.7832447696753</v>
       </c>
       <c r="F24" t="n">
-        <v>204.8233649521798</v>
+        <v>204.8233649521799</v>
       </c>
       <c r="G24" t="n">
-        <v>99.09057352692763</v>
+        <v>99.09057352692753</v>
       </c>
       <c r="H24" t="n">
         <v>40.48643694606873</v>
       </c>
       <c r="I24" t="n">
-        <v>43.01083102505507</v>
+        <v>62.57863487475247</v>
       </c>
       <c r="J24" t="n">
-        <v>108.5806640902074</v>
+        <v>371.8168719145381</v>
       </c>
       <c r="K24" t="n">
-        <v>252.3026566214989</v>
+        <v>664.3550098615118</v>
       </c>
       <c r="L24" t="n">
-        <v>464.3152411431562</v>
+        <v>876.3675943831691</v>
       </c>
       <c r="M24" t="n">
-        <v>965.3348983507567</v>
+        <v>1131.615812142137</v>
       </c>
       <c r="N24" t="n">
-        <v>1466.354555558357</v>
+        <v>1399.455191901287</v>
       </c>
       <c r="O24" t="n">
-        <v>1723.446597132247</v>
+        <v>1635.476880655266</v>
       </c>
       <c r="P24" t="n">
-        <v>1905.04491856843</v>
+        <v>1817.075202091449</v>
       </c>
       <c r="Q24" t="n">
-        <v>2006.22131270252</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R24" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="S24" t="n">
-        <v>1939.686028373152</v>
+        <v>1939.686028373151</v>
       </c>
       <c r="T24" t="n">
         <v>1785.412051570318</v>
       </c>
       <c r="U24" t="n">
-        <v>1588.143959212511</v>
+        <v>1588.14395921251</v>
       </c>
       <c r="V24" t="n">
         <v>1374.432432205544</v>
@@ -6110,10 +6110,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X24" t="n">
-        <v>984.8732820807658</v>
+        <v>984.8732820807659</v>
       </c>
       <c r="Y24" t="n">
-        <v>825.4713224445958</v>
+        <v>825.4713224445959</v>
       </c>
     </row>
     <row r="25">
@@ -6123,49 +6123,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1087.694781664777</v>
+        <v>547.215298370656</v>
       </c>
       <c r="C25" t="n">
-        <v>916.6014092264938</v>
+        <v>376.1219259323725</v>
       </c>
       <c r="D25" t="n">
-        <v>757.1067645494038</v>
+        <v>376.1219259323725</v>
       </c>
       <c r="E25" t="n">
-        <v>596.1959494177233</v>
+        <v>376.1219259323725</v>
       </c>
       <c r="F25" t="n">
-        <v>431.5648235283147</v>
+        <v>376.1219259323725</v>
       </c>
       <c r="G25" t="n">
-        <v>265.3685283624266</v>
+        <v>209.9256307664844</v>
       </c>
       <c r="H25" t="n">
-        <v>125.1329440640648</v>
+        <v>69.69004646812266</v>
       </c>
       <c r="I25" t="n">
         <v>40.48643694606873</v>
       </c>
       <c r="J25" t="n">
-        <v>127.6105279304289</v>
+        <v>62.60916429909252</v>
       </c>
       <c r="K25" t="n">
-        <v>402.1925459421785</v>
+        <v>130.910988725128</v>
       </c>
       <c r="L25" t="n">
-        <v>815.6863250168146</v>
+        <v>544.4047677997642</v>
       </c>
       <c r="M25" t="n">
-        <v>1266.896543402695</v>
+        <v>995.6149861856447</v>
       </c>
       <c r="N25" t="n">
-        <v>1373.796468531156</v>
+        <v>1434.549212761691</v>
       </c>
       <c r="O25" t="n">
-        <v>1541.657620062866</v>
+        <v>1840.136554279193</v>
       </c>
       <c r="P25" t="n">
-        <v>1872.284155743751</v>
+        <v>1998.558115949588</v>
       </c>
       <c r="Q25" t="n">
         <v>2024.321847303436</v>
@@ -6174,25 +6174,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S25" t="n">
-        <v>2024.321847303436</v>
+        <v>1856.300096062672</v>
       </c>
       <c r="T25" t="n">
-        <v>2024.321847303436</v>
+        <v>1621.255221375985</v>
       </c>
       <c r="U25" t="n">
-        <v>1741.581195990028</v>
+        <v>1338.514570062576</v>
       </c>
       <c r="V25" t="n">
-        <v>1741.581195990028</v>
+        <v>1064.628825002098</v>
       </c>
       <c r="W25" t="n">
-        <v>1738.474048810373</v>
+        <v>785.5591605109726</v>
       </c>
       <c r="X25" t="n">
-        <v>1500.130186670057</v>
+        <v>547.215298370656</v>
       </c>
       <c r="Y25" t="n">
-        <v>1275.394488058822</v>
+        <v>547.215298370656</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>865.9807788993207</v>
+        <v>322.3799048740435</v>
       </c>
       <c r="C26" t="n">
-        <v>865.9807788993207</v>
+        <v>322.3799048740435</v>
       </c>
       <c r="D26" t="n">
-        <v>461.5168489923812</v>
+        <v>322.3799048740435</v>
       </c>
       <c r="E26" t="n">
-        <v>461.5168489923812</v>
+        <v>322.3799048740435</v>
       </c>
       <c r="F26" t="n">
-        <v>40.48643694606873</v>
+        <v>322.3799048740435</v>
       </c>
       <c r="G26" t="n">
-        <v>40.48643694606873</v>
+        <v>322.3799048740435</v>
       </c>
       <c r="H26" t="n">
         <v>40.48643694606873</v>
@@ -6235,16 +6235,16 @@
         <v>641.1850750879078</v>
       </c>
       <c r="M26" t="n">
-        <v>953.2429319501309</v>
+        <v>953.2429319501307</v>
       </c>
       <c r="N26" t="n">
         <v>1272.218803576257</v>
       </c>
       <c r="O26" t="n">
-        <v>1568.017893256778</v>
+        <v>1568.017893256777</v>
       </c>
       <c r="P26" t="n">
-        <v>1806.502667397419</v>
+        <v>1806.502667397418</v>
       </c>
       <c r="Q26" t="n">
         <v>1966.084838463273</v>
@@ -6253,25 +6253,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S26" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="T26" t="n">
-        <v>2024.321847303436</v>
+        <v>1730.670028080286</v>
       </c>
       <c r="U26" t="n">
-        <v>1767.449349643671</v>
+        <v>1473.79753042052</v>
       </c>
       <c r="V26" t="n">
-        <v>1417.611794980151</v>
+        <v>1123.959975757001</v>
       </c>
       <c r="W26" t="n">
-        <v>1033.85149411532</v>
+        <v>1123.959975757001</v>
       </c>
       <c r="X26" t="n">
-        <v>865.9807788993207</v>
+        <v>723.3165779259534</v>
       </c>
       <c r="Y26" t="n">
-        <v>865.9807788993207</v>
+        <v>322.3799048740435</v>
       </c>
     </row>
     <row r="27">
@@ -6281,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>685.1682898090097</v>
+        <v>685.1682898090093</v>
       </c>
       <c r="C27" t="n">
-        <v>551.1732185579554</v>
+        <v>551.1732185579549</v>
       </c>
       <c r="D27" t="n">
-        <v>434.2760607773478</v>
+        <v>434.2760607773472</v>
       </c>
       <c r="E27" t="n">
-        <v>313.7832447696758</v>
+        <v>313.7832447696752</v>
       </c>
       <c r="F27" t="n">
-        <v>204.8233649521804</v>
+        <v>204.8233649521798</v>
       </c>
       <c r="G27" t="n">
-        <v>99.0905735269282</v>
+        <v>99.09057352692763</v>
       </c>
       <c r="H27" t="n">
         <v>40.48643694606873</v>
       </c>
       <c r="I27" t="n">
-        <v>43.01083102505507</v>
+        <v>62.57863487475247</v>
       </c>
       <c r="J27" t="n">
-        <v>208.7594707336913</v>
+        <v>371.8168719145381</v>
       </c>
       <c r="K27" t="n">
-        <v>352.4814632649828</v>
+        <v>515.5388644458296</v>
       </c>
       <c r="L27" t="n">
-        <v>564.4940477866402</v>
+        <v>727.551448967487</v>
       </c>
       <c r="M27" t="n">
-        <v>819.7422655456082</v>
+        <v>982.799666726455</v>
       </c>
       <c r="N27" t="n">
-        <v>1087.581645304758</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O27" t="n">
-        <v>1323.603334058737</v>
+        <v>1486.660735239584</v>
       </c>
       <c r="P27" t="n">
-        <v>1505.20165549492</v>
+        <v>1817.075202091449</v>
       </c>
       <c r="Q27" t="n">
-        <v>2006.221312702521</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R27" t="n">
         <v>2024.321847303436</v>
@@ -6344,13 +6344,13 @@
         <v>1374.432432205545</v>
       </c>
       <c r="W27" t="n">
-        <v>1161.199263941874</v>
+        <v>1161.199263941873</v>
       </c>
       <c r="X27" t="n">
-        <v>984.8732820807663</v>
+        <v>984.8732820807659</v>
       </c>
       <c r="Y27" t="n">
-        <v>825.4713224445964</v>
+        <v>825.4713224445959</v>
       </c>
     </row>
     <row r="28">
@@ -6360,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>372.4906245160328</v>
+        <v>537.8465192928278</v>
       </c>
       <c r="C28" t="n">
-        <v>201.3972520777492</v>
+        <v>366.7531468545443</v>
       </c>
       <c r="D28" t="n">
-        <v>201.3972520777492</v>
+        <v>207.2585021774543</v>
       </c>
       <c r="E28" t="n">
-        <v>40.48643694606873</v>
+        <v>207.2585021774543</v>
       </c>
       <c r="F28" t="n">
-        <v>40.48643694606873</v>
+        <v>207.2585021774543</v>
       </c>
       <c r="G28" t="n">
-        <v>40.48643694606873</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="H28" t="n">
-        <v>40.48643694606873</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="I28" t="n">
         <v>40.48643694606873</v>
       </c>
       <c r="J28" t="n">
-        <v>127.6105279304289</v>
+        <v>62.60916429909252</v>
       </c>
       <c r="K28" t="n">
-        <v>402.1925459421785</v>
+        <v>130.910988725128</v>
       </c>
       <c r="L28" t="n">
-        <v>815.6863250168146</v>
+        <v>544.4047677997642</v>
       </c>
       <c r="M28" t="n">
-        <v>921.9301938884097</v>
+        <v>995.6149861856447</v>
       </c>
       <c r="N28" t="n">
-        <v>1136.070278545365</v>
+        <v>1434.549212761691</v>
       </c>
       <c r="O28" t="n">
-        <v>1541.657620062866</v>
+        <v>1840.136554279193</v>
       </c>
       <c r="P28" t="n">
-        <v>1872.284155743751</v>
+        <v>1998.558115949588</v>
       </c>
       <c r="Q28" t="n">
         <v>2024.321847303436</v>
@@ -6411,25 +6411,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S28" t="n">
-        <v>1856.300096062672</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T28" t="n">
-        <v>1621.255221375985</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="U28" t="n">
-        <v>1576.225301213233</v>
+        <v>1741.581195990028</v>
       </c>
       <c r="V28" t="n">
-        <v>1302.339556152755</v>
+        <v>1467.69545092955</v>
       </c>
       <c r="W28" t="n">
-        <v>1023.269891661629</v>
+        <v>1188.625786438424</v>
       </c>
       <c r="X28" t="n">
-        <v>784.9260295213124</v>
+        <v>950.2819242981075</v>
       </c>
       <c r="Y28" t="n">
-        <v>560.1903309100771</v>
+        <v>725.5462256868722</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1692.360013260331</v>
+        <v>741.6689700612533</v>
       </c>
       <c r="C29" t="n">
-        <v>1282.235422573601</v>
+        <v>741.6689700612533</v>
       </c>
       <c r="D29" t="n">
-        <v>1282.235422573601</v>
+        <v>741.6689700612533</v>
       </c>
       <c r="E29" t="n">
-        <v>867.8952070904973</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="F29" t="n">
-        <v>446.8647950441849</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="G29" t="n">
-        <v>40.48643694606873</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="H29" t="n">
         <v>40.48643694606873</v>
       </c>
       <c r="I29" t="n">
-        <v>44.64574590746555</v>
+        <v>44.64574590746543</v>
       </c>
       <c r="J29" t="n">
-        <v>167.5334271492899</v>
+        <v>167.5334271492898</v>
       </c>
       <c r="K29" t="n">
-        <v>372.2593058752966</v>
+        <v>372.2593058752968</v>
       </c>
       <c r="L29" t="n">
         <v>641.185075087908</v>
@@ -6478,10 +6478,10 @@
         <v>1272.218803576257</v>
       </c>
       <c r="O29" t="n">
-        <v>1568.017893256777</v>
+        <v>1568.017893256778</v>
       </c>
       <c r="P29" t="n">
-        <v>1806.502667397418</v>
+        <v>1806.502667397419</v>
       </c>
       <c r="Q29" t="n">
         <v>1966.084838463273</v>
@@ -6490,25 +6490,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S29" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="T29" t="n">
-        <v>2024.321847303436</v>
+        <v>1730.670028080286</v>
       </c>
       <c r="U29" t="n">
-        <v>2024.321847303436</v>
+        <v>1730.670028080286</v>
       </c>
       <c r="V29" t="n">
-        <v>2024.321847303436</v>
+        <v>1380.832473416767</v>
       </c>
       <c r="W29" t="n">
-        <v>2024.321847303436</v>
+        <v>1380.832473416767</v>
       </c>
       <c r="X29" t="n">
-        <v>2024.321847303436</v>
+        <v>980.1890755857191</v>
       </c>
       <c r="Y29" t="n">
-        <v>2024.321847303436</v>
+        <v>980.1890755857191</v>
       </c>
     </row>
     <row r="30">
@@ -6518,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>685.1682898090091</v>
+        <v>685.1682898090093</v>
       </c>
       <c r="C30" t="n">
-        <v>551.1732185579548</v>
+        <v>551.1732185579549</v>
       </c>
       <c r="D30" t="n">
-        <v>434.2760607773472</v>
+        <v>434.2760607773473</v>
       </c>
       <c r="E30" t="n">
         <v>313.7832447696752</v>
@@ -6542,28 +6542,28 @@
         <v>43.01083102505507</v>
       </c>
       <c r="J30" t="n">
-        <v>352.2490680648407</v>
+        <v>208.7594707336913</v>
       </c>
       <c r="K30" t="n">
-        <v>495.9710605961322</v>
+        <v>352.4814632649828</v>
       </c>
       <c r="L30" t="n">
-        <v>707.9836451177896</v>
+        <v>564.4940477866402</v>
       </c>
       <c r="M30" t="n">
-        <v>963.2318628767576</v>
+        <v>819.7422655456082</v>
       </c>
       <c r="N30" t="n">
-        <v>1464.251520084358</v>
+        <v>1087.581645304758</v>
       </c>
       <c r="O30" t="n">
-        <v>1700.273208838338</v>
+        <v>1323.603334058737</v>
       </c>
       <c r="P30" t="n">
-        <v>1881.871530274521</v>
+        <v>1505.20165549492</v>
       </c>
       <c r="Q30" t="n">
-        <v>1983.047924408611</v>
+        <v>2006.22131270252</v>
       </c>
       <c r="R30" t="n">
         <v>2024.321847303436</v>
@@ -6572,22 +6572,22 @@
         <v>1939.686028373152</v>
       </c>
       <c r="T30" t="n">
-        <v>1785.412051570317</v>
+        <v>1785.412051570318</v>
       </c>
       <c r="U30" t="n">
-        <v>1588.14395921251</v>
+        <v>1588.143959212511</v>
       </c>
       <c r="V30" t="n">
-        <v>1374.432432205544</v>
+        <v>1374.432432205545</v>
       </c>
       <c r="W30" t="n">
         <v>1161.199263941873</v>
       </c>
       <c r="X30" t="n">
-        <v>984.8732820807658</v>
+        <v>984.8732820807659</v>
       </c>
       <c r="Y30" t="n">
-        <v>825.4713224445958</v>
+        <v>825.4713224445959</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>371.0744540614422</v>
+        <v>601.0930266901188</v>
       </c>
       <c r="C31" t="n">
-        <v>199.9810816231587</v>
+        <v>429.9996542518353</v>
       </c>
       <c r="D31" t="n">
-        <v>40.48643694606873</v>
+        <v>429.9996542518353</v>
       </c>
       <c r="E31" t="n">
-        <v>40.48643694606873</v>
+        <v>429.9996542518353</v>
       </c>
       <c r="F31" t="n">
-        <v>40.48643694606873</v>
+        <v>265.3685283624266</v>
       </c>
       <c r="G31" t="n">
-        <v>40.48643694606873</v>
+        <v>265.3685283624266</v>
       </c>
       <c r="H31" t="n">
-        <v>40.48643694606873</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="I31" t="n">
         <v>40.48643694606873</v>
@@ -6624,19 +6624,19 @@
         <v>127.6105279304289</v>
       </c>
       <c r="K31" t="n">
-        <v>402.1925459421785</v>
+        <v>195.9123523564644</v>
       </c>
       <c r="L31" t="n">
-        <v>815.6863250168146</v>
+        <v>295.4270201960774</v>
       </c>
       <c r="M31" t="n">
-        <v>921.9301938884097</v>
+        <v>746.6372385819579</v>
       </c>
       <c r="N31" t="n">
-        <v>1136.070278545364</v>
+        <v>1185.571465158004</v>
       </c>
       <c r="O31" t="n">
-        <v>1541.657620062866</v>
+        <v>1591.158806675506</v>
       </c>
       <c r="P31" t="n">
         <v>1872.284155743751</v>
@@ -6645,28 +6645,28 @@
         <v>2024.321847303436</v>
       </c>
       <c r="R31" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S31" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T31" t="n">
-        <v>1751.400239417419</v>
+        <v>1789.276972616749</v>
       </c>
       <c r="U31" t="n">
-        <v>1468.65958810401</v>
+        <v>1506.536321303341</v>
       </c>
       <c r="V31" t="n">
-        <v>1194.773843043532</v>
+        <v>1232.650576242863</v>
       </c>
       <c r="W31" t="n">
-        <v>915.7041785524068</v>
+        <v>953.5809117517369</v>
       </c>
       <c r="X31" t="n">
-        <v>783.5098590667219</v>
+        <v>715.2370496114204</v>
       </c>
       <c r="Y31" t="n">
-        <v>558.7741604554866</v>
+        <v>601.0930266901188</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>855.0749575397381</v>
+        <v>1685.717213369037</v>
       </c>
       <c r="C32" t="n">
-        <v>444.9503668530082</v>
+        <v>1685.717213369037</v>
       </c>
       <c r="D32" t="n">
-        <v>40.48643694606873</v>
+        <v>1282.235422573601</v>
       </c>
       <c r="E32" t="n">
-        <v>40.48643694606873</v>
+        <v>867.8952070904973</v>
       </c>
       <c r="F32" t="n">
-        <v>40.48643694606873</v>
+        <v>446.8647950441849</v>
       </c>
       <c r="G32" t="n">
         <v>40.48643694606873</v>
@@ -6697,19 +6697,19 @@
         <v>40.48643694606873</v>
       </c>
       <c r="I32" t="n">
-        <v>44.64574590746543</v>
+        <v>44.6457459074652</v>
       </c>
       <c r="J32" t="n">
-        <v>167.5334271492898</v>
+        <v>167.5334271492895</v>
       </c>
       <c r="K32" t="n">
-        <v>372.2593058752968</v>
+        <v>372.2593058752963</v>
       </c>
       <c r="L32" t="n">
-        <v>641.185075087908</v>
+        <v>641.1850750879075</v>
       </c>
       <c r="M32" t="n">
-        <v>953.2429319501309</v>
+        <v>953.2429319501305</v>
       </c>
       <c r="N32" t="n">
         <v>1272.218803576257</v>
@@ -6730,22 +6730,22 @@
         <v>1942.589711028803</v>
       </c>
       <c r="T32" t="n">
-        <v>1730.670028080286</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="U32" t="n">
-        <v>1473.79753042052</v>
+        <v>1685.717213369037</v>
       </c>
       <c r="V32" t="n">
-        <v>1265.296137204228</v>
+        <v>1685.717213369037</v>
       </c>
       <c r="W32" t="n">
-        <v>1265.296137204228</v>
+        <v>1685.717213369037</v>
       </c>
       <c r="X32" t="n">
-        <v>1265.296137204228</v>
+        <v>1685.717213369037</v>
       </c>
       <c r="Y32" t="n">
-        <v>1265.296137204228</v>
+        <v>1685.717213369037</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>40.48643694606873</v>
       </c>
       <c r="I33" t="n">
-        <v>43.01083102505507</v>
+        <v>62.57863487475247</v>
       </c>
       <c r="J33" t="n">
-        <v>352.2490680648407</v>
+        <v>128.1484679399048</v>
       </c>
       <c r="K33" t="n">
-        <v>664.3550098615118</v>
+        <v>271.8704604711963</v>
       </c>
       <c r="L33" t="n">
-        <v>876.3675943831691</v>
+        <v>483.8830449928536</v>
       </c>
       <c r="M33" t="n">
-        <v>1131.615812142137</v>
+        <v>739.1312627518217</v>
       </c>
       <c r="N33" t="n">
-        <v>1399.455191901287</v>
+        <v>1006.970642510971</v>
       </c>
       <c r="O33" t="n">
-        <v>1635.476880655266</v>
+        <v>1242.992331264951</v>
       </c>
       <c r="P33" t="n">
-        <v>1817.075202091449</v>
+        <v>1424.590652701133</v>
       </c>
       <c r="Q33" t="n">
         <v>1918.251596225539</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>627.0537375576451</v>
+        <v>547.215298370656</v>
       </c>
       <c r="C34" t="n">
-        <v>455.9603651193617</v>
+        <v>547.215298370656</v>
       </c>
       <c r="D34" t="n">
-        <v>455.9603651193617</v>
+        <v>387.720653693566</v>
       </c>
       <c r="E34" t="n">
-        <v>455.9603651193617</v>
+        <v>387.720653693566</v>
       </c>
       <c r="F34" t="n">
-        <v>291.3292392299529</v>
+        <v>387.720653693566</v>
       </c>
       <c r="G34" t="n">
-        <v>125.1329440640648</v>
+        <v>221.5243585276779</v>
       </c>
       <c r="H34" t="n">
-        <v>125.1329440640648</v>
+        <v>81.28877422931618</v>
       </c>
       <c r="I34" t="n">
         <v>40.48643694606873</v>
@@ -6861,49 +6861,49 @@
         <v>127.6105279304289</v>
       </c>
       <c r="K34" t="n">
-        <v>402.1925459421785</v>
+        <v>195.9123523564644</v>
       </c>
       <c r="L34" t="n">
-        <v>815.6863250168146</v>
+        <v>609.4061314311004</v>
       </c>
       <c r="M34" t="n">
-        <v>1266.896543402695</v>
+        <v>1060.616349816981</v>
       </c>
       <c r="N34" t="n">
-        <v>1373.796468531156</v>
+        <v>1499.550576393027</v>
       </c>
       <c r="O34" t="n">
-        <v>1541.657620062866</v>
+        <v>1905.137917910529</v>
       </c>
       <c r="P34" t="n">
-        <v>1872.284155743751</v>
+        <v>1998.558115949588</v>
       </c>
       <c r="Q34" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="R34" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S34" t="n">
-        <v>1986.445114104106</v>
+        <v>1856.300096062672</v>
       </c>
       <c r="T34" t="n">
-        <v>1751.400239417419</v>
+        <v>1621.255221375985</v>
       </c>
       <c r="U34" t="n">
-        <v>1468.65958810401</v>
+        <v>1338.514570062576</v>
       </c>
       <c r="V34" t="n">
-        <v>1277.833004703241</v>
+        <v>1064.628825002098</v>
       </c>
       <c r="W34" t="n">
-        <v>1277.833004703241</v>
+        <v>785.5591605109726</v>
       </c>
       <c r="X34" t="n">
-        <v>1039.489142562925</v>
+        <v>547.215298370656</v>
       </c>
       <c r="Y34" t="n">
-        <v>814.7534439516895</v>
+        <v>547.215298370656</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>875.8570644754845</v>
+        <v>865.9807788993207</v>
       </c>
       <c r="C35" t="n">
-        <v>875.8570644754845</v>
+        <v>865.9807788993207</v>
       </c>
       <c r="D35" t="n">
-        <v>875.8570644754845</v>
+        <v>461.5168489923812</v>
       </c>
       <c r="E35" t="n">
         <v>461.5168489923812</v>
@@ -6940,13 +6940,13 @@
         <v>167.5334271492898</v>
       </c>
       <c r="K35" t="n">
-        <v>372.2593058752965</v>
+        <v>372.2593058752964</v>
       </c>
       <c r="L35" t="n">
-        <v>641.1850750879078</v>
+        <v>641.1850750879075</v>
       </c>
       <c r="M35" t="n">
-        <v>953.2429319501307</v>
+        <v>953.2429319501305</v>
       </c>
       <c r="N35" t="n">
         <v>1272.218803576257</v>
@@ -6964,25 +6964,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S35" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="T35" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="U35" t="n">
-        <v>2024.321847303436</v>
+        <v>1685.717213369037</v>
       </c>
       <c r="V35" t="n">
-        <v>2024.321847303436</v>
+        <v>1335.879658705518</v>
       </c>
       <c r="W35" t="n">
-        <v>1677.437135358442</v>
+        <v>952.1193578406867</v>
       </c>
       <c r="X35" t="n">
-        <v>1276.793737527395</v>
+        <v>952.1193578406867</v>
       </c>
       <c r="Y35" t="n">
-        <v>875.8570644754845</v>
+        <v>865.9807788993207</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>40.48643694606873</v>
       </c>
       <c r="I36" t="n">
-        <v>43.01083102505507</v>
+        <v>62.57863487475247</v>
       </c>
       <c r="J36" t="n">
-        <v>352.2490680648407</v>
+        <v>371.8168719145381</v>
       </c>
       <c r="K36" t="n">
-        <v>495.9710605961322</v>
+        <v>664.3550098615118</v>
       </c>
       <c r="L36" t="n">
-        <v>707.9836451177896</v>
+        <v>876.3675943831691</v>
       </c>
       <c r="M36" t="n">
-        <v>963.2318628767576</v>
+        <v>1131.615812142137</v>
       </c>
       <c r="N36" t="n">
-        <v>1231.071242635907</v>
+        <v>1399.455191901287</v>
       </c>
       <c r="O36" t="n">
-        <v>1467.092931389886</v>
+        <v>1635.476880655266</v>
       </c>
       <c r="P36" t="n">
-        <v>1648.691252826069</v>
+        <v>1817.075202091449</v>
       </c>
       <c r="Q36" t="n">
         <v>1918.251596225539</v>
@@ -7043,7 +7043,7 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S36" t="n">
-        <v>1939.686028373151</v>
+        <v>1939.686028373152</v>
       </c>
       <c r="T36" t="n">
         <v>1785.412051570317</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>489.6606100180459</v>
+        <v>134.7798933653763</v>
       </c>
       <c r="C37" t="n">
-        <v>426.2793434941071</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="D37" t="n">
-        <v>426.2793434941071</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="E37" t="n">
-        <v>265.3685283624266</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3685283624266</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="G37" t="n">
-        <v>265.3685283624266</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="H37" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I37" t="n">
         <v>40.48643694606873</v>
@@ -7101,46 +7101,46 @@
         <v>402.1925459421785</v>
       </c>
       <c r="L37" t="n">
-        <v>815.6863250168146</v>
+        <v>633.0972772623925</v>
       </c>
       <c r="M37" t="n">
-        <v>1266.896543402695</v>
+        <v>1084.307495648273</v>
       </c>
       <c r="N37" t="n">
-        <v>1373.796468531156</v>
+        <v>1523.241722224319</v>
       </c>
       <c r="O37" t="n">
-        <v>1541.657620062866</v>
+        <v>1928.829063741821</v>
       </c>
       <c r="P37" t="n">
-        <v>1872.284155743751</v>
+        <v>1998.558115949588</v>
       </c>
       <c r="Q37" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="R37" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S37" t="n">
-        <v>1986.445114104106</v>
+        <v>1856.300096062672</v>
       </c>
       <c r="T37" t="n">
-        <v>1751.400239417419</v>
+        <v>1621.255221375985</v>
       </c>
       <c r="U37" t="n">
-        <v>1468.65958810401</v>
+        <v>1338.514570062576</v>
       </c>
       <c r="V37" t="n">
-        <v>1194.773843043532</v>
+        <v>1064.628825002098</v>
       </c>
       <c r="W37" t="n">
-        <v>915.7041785524068</v>
+        <v>785.5591605109726</v>
       </c>
       <c r="X37" t="n">
-        <v>677.3603164120902</v>
+        <v>547.215298370656</v>
       </c>
       <c r="Y37" t="n">
-        <v>677.3603164120902</v>
+        <v>322.4795997594207</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1411.465491303009</v>
+        <v>1285.981655162214</v>
       </c>
       <c r="C38" t="n">
-        <v>1411.465491303009</v>
+        <v>875.8570644754845</v>
       </c>
       <c r="D38" t="n">
-        <v>1007.001561396069</v>
+        <v>875.8570644754845</v>
       </c>
       <c r="E38" t="n">
-        <v>592.6613459129658</v>
+        <v>461.5168489923812</v>
       </c>
       <c r="F38" t="n">
-        <v>592.6613459129658</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="G38" t="n">
-        <v>186.2829878148497</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="H38" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I38" t="n">
-        <v>44.64574590746554</v>
+        <v>44.6457459074652</v>
       </c>
       <c r="J38" t="n">
-        <v>167.5334271492897</v>
+        <v>167.5334271492895</v>
       </c>
       <c r="K38" t="n">
         <v>372.2593058752963</v>
@@ -7183,19 +7183,19 @@
         <v>641.1850750879075</v>
       </c>
       <c r="M38" t="n">
-        <v>953.2429319501306</v>
+        <v>953.2429319501305</v>
       </c>
       <c r="N38" t="n">
         <v>1272.218803576257</v>
       </c>
       <c r="O38" t="n">
-        <v>1568.017893256777</v>
+        <v>1568.017893256778</v>
       </c>
       <c r="P38" t="n">
         <v>1806.502667397418</v>
       </c>
       <c r="Q38" t="n">
-        <v>1966.084838463272</v>
+        <v>1966.084838463273</v>
       </c>
       <c r="R38" t="n">
         <v>2024.321847303436</v>
@@ -7204,22 +7204,22 @@
         <v>2024.321847303436</v>
       </c>
       <c r="T38" t="n">
-        <v>1812.402164354919</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="U38" t="n">
-        <v>1812.402164354919</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="V38" t="n">
-        <v>1812.402164354919</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="W38" t="n">
-        <v>1812.402164354919</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="X38" t="n">
-        <v>1812.402164354919</v>
+        <v>1696.202834826704</v>
       </c>
       <c r="Y38" t="n">
-        <v>1411.465491303009</v>
+        <v>1696.202834826704</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>685.1682898090091</v>
+        <v>685.1682898090093</v>
       </c>
       <c r="C39" t="n">
-        <v>551.1732185579548</v>
+        <v>551.1732185579549</v>
       </c>
       <c r="D39" t="n">
-        <v>434.2760607773472</v>
+        <v>434.2760607773473</v>
       </c>
       <c r="E39" t="n">
-        <v>313.7832447696752</v>
+        <v>313.7832447696753</v>
       </c>
       <c r="F39" t="n">
         <v>204.8233649521798</v>
       </c>
       <c r="G39" t="n">
-        <v>99.09057352692761</v>
+        <v>99.09057352692763</v>
       </c>
       <c r="H39" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I39" t="n">
-        <v>43.01083102505505</v>
+        <v>62.57863487475247</v>
       </c>
       <c r="J39" t="n">
-        <v>108.5806640902074</v>
+        <v>371.8168719145381</v>
       </c>
       <c r="K39" t="n">
-        <v>252.3026566214989</v>
+        <v>664.3550098615118</v>
       </c>
       <c r="L39" t="n">
-        <v>464.3152411431562</v>
+        <v>876.3675943831691</v>
       </c>
       <c r="M39" t="n">
-        <v>719.5634589021244</v>
+        <v>1131.615812142137</v>
       </c>
       <c r="N39" t="n">
-        <v>1087.581645304757</v>
+        <v>1399.455191901287</v>
       </c>
       <c r="O39" t="n">
-        <v>1323.603334058737</v>
+        <v>1635.476880655266</v>
       </c>
       <c r="P39" t="n">
-        <v>1505.20165549492</v>
+        <v>1817.075202091449</v>
       </c>
       <c r="Q39" t="n">
-        <v>2006.22131270252</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R39" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="S39" t="n">
-        <v>1939.686028373151</v>
+        <v>1939.686028373152</v>
       </c>
       <c r="T39" t="n">
-        <v>1785.412051570317</v>
+        <v>1785.412051570318</v>
       </c>
       <c r="U39" t="n">
-        <v>1588.14395921251</v>
+        <v>1588.143959212511</v>
       </c>
       <c r="V39" t="n">
-        <v>1374.432432205544</v>
+        <v>1374.432432205545</v>
       </c>
       <c r="W39" t="n">
         <v>1161.199263941873</v>
       </c>
       <c r="X39" t="n">
-        <v>984.8732820807658</v>
+        <v>984.8732820807659</v>
       </c>
       <c r="Y39" t="n">
-        <v>825.4713224445958</v>
+        <v>825.4713224445959</v>
       </c>
     </row>
     <row r="40">
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1087.694781664777</v>
+        <v>604.37951009069</v>
       </c>
       <c r="C40" t="n">
-        <v>916.6014092264938</v>
+        <v>433.2861376524065</v>
       </c>
       <c r="D40" t="n">
-        <v>757.1067645494038</v>
+        <v>431.5648235283147</v>
       </c>
       <c r="E40" t="n">
-        <v>596.1959494177233</v>
+        <v>431.5648235283147</v>
       </c>
       <c r="F40" t="n">
         <v>431.5648235283147</v>
@@ -7329,7 +7329,7 @@
         <v>125.1329440640648</v>
       </c>
       <c r="I40" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="J40" t="n">
         <v>127.6105279304289</v>
@@ -7338,19 +7338,19 @@
         <v>195.9123523564644</v>
       </c>
       <c r="L40" t="n">
-        <v>609.4061314311004</v>
+        <v>295.4270201960774</v>
       </c>
       <c r="M40" t="n">
-        <v>1060.616349816981</v>
+        <v>746.6372385819579</v>
       </c>
       <c r="N40" t="n">
-        <v>1499.550576393027</v>
+        <v>1185.571465158004</v>
       </c>
       <c r="O40" t="n">
-        <v>1905.137917910529</v>
+        <v>1591.158806675506</v>
       </c>
       <c r="P40" t="n">
-        <v>1974.866970118296</v>
+        <v>1872.284155743751</v>
       </c>
       <c r="Q40" t="n">
         <v>2024.321847303436</v>
@@ -7359,25 +7359,25 @@
         <v>1986.445114104106</v>
       </c>
       <c r="S40" t="n">
-        <v>1818.423362863341</v>
+        <v>1818.423362863342</v>
       </c>
       <c r="T40" t="n">
-        <v>1583.378488176654</v>
+        <v>1583.378488176655</v>
       </c>
       <c r="U40" t="n">
-        <v>1583.378488176654</v>
+        <v>1583.378488176655</v>
       </c>
       <c r="V40" t="n">
-        <v>1309.492743116176</v>
+        <v>1309.492743116177</v>
       </c>
       <c r="W40" t="n">
-        <v>1309.492743116176</v>
+        <v>1030.423078625051</v>
       </c>
       <c r="X40" t="n">
-        <v>1309.492743116176</v>
+        <v>792.0792164847344</v>
       </c>
       <c r="Y40" t="n">
-        <v>1275.394488058822</v>
+        <v>792.0792164847344</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1282.235422573601</v>
+        <v>1138.171042583205</v>
       </c>
       <c r="C41" t="n">
-        <v>1282.235422573601</v>
+        <v>1138.171042583205</v>
       </c>
       <c r="D41" t="n">
-        <v>1282.235422573601</v>
+        <v>733.707112676266</v>
       </c>
       <c r="E41" t="n">
-        <v>867.8952070904973</v>
+        <v>733.707112676266</v>
       </c>
       <c r="F41" t="n">
-        <v>446.8647950441848</v>
+        <v>733.707112676266</v>
       </c>
       <c r="G41" t="n">
-        <v>40.48643694606871</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="H41" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I41" t="n">
-        <v>44.64574590746555</v>
+        <v>44.6457459074652</v>
       </c>
       <c r="J41" t="n">
-        <v>167.5334271492899</v>
+        <v>167.5334271492895</v>
       </c>
       <c r="K41" t="n">
-        <v>372.2593058752965</v>
+        <v>372.2593058752963</v>
       </c>
       <c r="L41" t="n">
-        <v>641.1850750879078</v>
+        <v>641.1850750879075</v>
       </c>
       <c r="M41" t="n">
-        <v>953.2429319501302</v>
+        <v>953.2429319501305</v>
       </c>
       <c r="N41" t="n">
-        <v>1272.218803576256</v>
+        <v>1272.218803576257</v>
       </c>
       <c r="O41" t="n">
-        <v>1568.017893256777</v>
+        <v>1568.017893256778</v>
       </c>
       <c r="P41" t="n">
         <v>1806.502667397418</v>
       </c>
       <c r="Q41" t="n">
-        <v>1966.084838463272</v>
+        <v>1966.084838463273</v>
       </c>
       <c r="R41" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="S41" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="T41" t="n">
-        <v>2024.321847303436</v>
+        <v>1730.670028080286</v>
       </c>
       <c r="U41" t="n">
-        <v>1767.44934964367</v>
+        <v>1473.79753042052</v>
       </c>
       <c r="V41" t="n">
-        <v>1692.45660223809</v>
+        <v>1473.79753042052</v>
       </c>
       <c r="W41" t="n">
-        <v>1692.45660223809</v>
+        <v>1138.171042583205</v>
       </c>
       <c r="X41" t="n">
-        <v>1692.45660223809</v>
+        <v>1138.171042583205</v>
       </c>
       <c r="Y41" t="n">
-        <v>1692.45660223809</v>
+        <v>1138.171042583205</v>
       </c>
     </row>
     <row r="42">
@@ -7481,28 +7481,28 @@
         <v>204.8233649521798</v>
       </c>
       <c r="G42" t="n">
-        <v>99.09057352692761</v>
+        <v>99.09057352692763</v>
       </c>
       <c r="H42" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I42" t="n">
-        <v>43.01083102505505</v>
+        <v>43.01083102505507</v>
       </c>
       <c r="J42" t="n">
-        <v>208.7594707336909</v>
+        <v>208.7594707336913</v>
       </c>
       <c r="K42" t="n">
-        <v>352.4814632649824</v>
+        <v>352.4814632649828</v>
       </c>
       <c r="L42" t="n">
-        <v>564.4940477866397</v>
+        <v>564.4940477866402</v>
       </c>
       <c r="M42" t="n">
-        <v>819.7422655456078</v>
+        <v>819.7422655456082</v>
       </c>
       <c r="N42" t="n">
-        <v>1087.581645304757</v>
+        <v>1087.581645304758</v>
       </c>
       <c r="O42" t="n">
         <v>1323.603334058737</v>
@@ -7566,55 +7566,55 @@
         <v>125.1329440640648</v>
       </c>
       <c r="I43" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="J43" t="n">
         <v>127.6105279304289</v>
       </c>
       <c r="K43" t="n">
-        <v>402.1925459421785</v>
+        <v>195.9123523564644</v>
       </c>
       <c r="L43" t="n">
-        <v>815.6863250168146</v>
+        <v>295.4270201960774</v>
       </c>
       <c r="M43" t="n">
-        <v>1266.896543402695</v>
+        <v>746.6372385819579</v>
       </c>
       <c r="N43" t="n">
-        <v>1705.830769978742</v>
+        <v>1185.571465158004</v>
       </c>
       <c r="O43" t="n">
-        <v>1796.343352077502</v>
+        <v>1591.158806675506</v>
       </c>
       <c r="P43" t="n">
-        <v>1872.28415574375</v>
+        <v>1872.284155743751</v>
       </c>
       <c r="Q43" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="R43" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S43" t="n">
-        <v>1818.423362863341</v>
+        <v>2017.915712670153</v>
       </c>
       <c r="T43" t="n">
-        <v>1583.378488176654</v>
+        <v>1782.870837983465</v>
       </c>
       <c r="U43" t="n">
-        <v>1300.637836863246</v>
+        <v>1500.130186670057</v>
       </c>
       <c r="V43" t="n">
-        <v>1087.694781664777</v>
+        <v>1500.130186670057</v>
       </c>
       <c r="W43" t="n">
-        <v>1087.694781664777</v>
+        <v>1500.130186670057</v>
       </c>
       <c r="X43" t="n">
-        <v>1087.694781664777</v>
+        <v>1500.130186670057</v>
       </c>
       <c r="Y43" t="n">
-        <v>1087.694781664777</v>
+        <v>1275.394488058822</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.100667638947</v>
+        <v>1285.981655162214</v>
       </c>
       <c r="C44" t="n">
-        <v>1203.976076952217</v>
+        <v>875.8570644754845</v>
       </c>
       <c r="D44" t="n">
-        <v>1203.976076952217</v>
+        <v>875.8570644754845</v>
       </c>
       <c r="E44" t="n">
-        <v>789.6358614691135</v>
+        <v>461.5168489923812</v>
       </c>
       <c r="F44" t="n">
-        <v>368.605449422801</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="G44" t="n">
         <v>40.48643694606873</v>
@@ -7645,7 +7645,7 @@
         <v>40.48643694606873</v>
       </c>
       <c r="I44" t="n">
-        <v>44.64574590746555</v>
+        <v>44.64574590746565</v>
       </c>
       <c r="J44" t="n">
         <v>167.5334271492901</v>
@@ -7657,7 +7657,7 @@
         <v>641.185075087908</v>
       </c>
       <c r="M44" t="n">
-        <v>953.2429319501309</v>
+        <v>953.2429319501312</v>
       </c>
       <c r="N44" t="n">
         <v>1272.218803576257</v>
@@ -7678,22 +7678,22 @@
         <v>2024.321847303436</v>
       </c>
       <c r="T44" t="n">
-        <v>2024.321847303436</v>
+        <v>1812.402164354919</v>
       </c>
       <c r="U44" t="n">
-        <v>2024.321847303436</v>
+        <v>1696.202834826704</v>
       </c>
       <c r="V44" t="n">
-        <v>2024.321847303436</v>
+        <v>1696.202834826704</v>
       </c>
       <c r="W44" t="n">
-        <v>2024.321847303436</v>
+        <v>1696.202834826704</v>
       </c>
       <c r="X44" t="n">
-        <v>2024.321847303436</v>
+        <v>1696.202834826704</v>
       </c>
       <c r="Y44" t="n">
-        <v>2024.321847303436</v>
+        <v>1696.202834826704</v>
       </c>
     </row>
     <row r="45">
@@ -7703,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>685.1682898090094</v>
+        <v>685.1682898090091</v>
       </c>
       <c r="C45" t="n">
-        <v>551.1732185579551</v>
+        <v>551.1732185579548</v>
       </c>
       <c r="D45" t="n">
-        <v>434.2760607773475</v>
+        <v>434.2760607773472</v>
       </c>
       <c r="E45" t="n">
-        <v>313.7832447696755</v>
+        <v>313.7832447696752</v>
       </c>
       <c r="F45" t="n">
-        <v>204.8233649521802</v>
+        <v>204.8233649521798</v>
       </c>
       <c r="G45" t="n">
-        <v>99.09057352692763</v>
+        <v>99.09057352692761</v>
       </c>
       <c r="H45" t="n">
         <v>40.48643694606873</v>
       </c>
       <c r="I45" t="n">
-        <v>43.01083102505507</v>
+        <v>62.57863487475248</v>
       </c>
       <c r="J45" t="n">
-        <v>352.2490680648407</v>
+        <v>371.8168719145381</v>
       </c>
       <c r="K45" t="n">
-        <v>495.9710605961322</v>
+        <v>664.3550098615119</v>
       </c>
       <c r="L45" t="n">
-        <v>707.9836451177896</v>
+        <v>876.3675943831693</v>
       </c>
       <c r="M45" t="n">
-        <v>963.2318628767576</v>
+        <v>1131.615812142137</v>
       </c>
       <c r="N45" t="n">
-        <v>1231.071242635907</v>
+        <v>1399.455191901287</v>
       </c>
       <c r="O45" t="n">
-        <v>1467.092931389886</v>
+        <v>1635.476880655266</v>
       </c>
       <c r="P45" t="n">
-        <v>1648.691252826069</v>
+        <v>1817.075202091449</v>
       </c>
       <c r="Q45" t="n">
-        <v>2006.22131270252</v>
+        <v>1918.25159622554</v>
       </c>
       <c r="R45" t="n">
         <v>2024.321847303436</v>
@@ -7757,22 +7757,22 @@
         <v>1939.686028373152</v>
       </c>
       <c r="T45" t="n">
-        <v>1785.412051570318</v>
+        <v>1785.412051570317</v>
       </c>
       <c r="U45" t="n">
-        <v>1588.143959212511</v>
+        <v>1588.14395921251</v>
       </c>
       <c r="V45" t="n">
-        <v>1374.432432205545</v>
+        <v>1374.432432205544</v>
       </c>
       <c r="W45" t="n">
         <v>1161.199263941873</v>
       </c>
       <c r="X45" t="n">
-        <v>984.873282080766</v>
+        <v>984.8732820807658</v>
       </c>
       <c r="Y45" t="n">
-        <v>825.471322444596</v>
+        <v>825.4713224445958</v>
       </c>
     </row>
     <row r="46">
@@ -7782,46 +7782,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>677.5063335256921</v>
+        <v>751.9702833370852</v>
       </c>
       <c r="C46" t="n">
-        <v>506.4129610874085</v>
+        <v>751.9702833370852</v>
       </c>
       <c r="D46" t="n">
-        <v>346.9183164103185</v>
+        <v>592.4756386599952</v>
       </c>
       <c r="E46" t="n">
-        <v>346.9183164103185</v>
+        <v>431.5648235283147</v>
       </c>
       <c r="F46" t="n">
-        <v>346.9183164103185</v>
+        <v>431.5648235283147</v>
       </c>
       <c r="G46" t="n">
-        <v>180.7220212444305</v>
+        <v>265.3685283624266</v>
       </c>
       <c r="H46" t="n">
-        <v>40.48643694606873</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="I46" t="n">
         <v>40.48643694606873</v>
       </c>
       <c r="J46" t="n">
-        <v>127.6105279304289</v>
+        <v>62.60916429909253</v>
       </c>
       <c r="K46" t="n">
-        <v>402.1925459421785</v>
+        <v>337.1911823108422</v>
       </c>
       <c r="L46" t="n">
-        <v>506.8233170565554</v>
+        <v>750.6849613854783</v>
       </c>
       <c r="M46" t="n">
-        <v>958.033535442436</v>
+        <v>1029.170353416904</v>
       </c>
       <c r="N46" t="n">
-        <v>1396.967762018482</v>
+        <v>1136.070278545365</v>
       </c>
       <c r="O46" t="n">
-        <v>1802.555103535984</v>
+        <v>1541.657620062866</v>
       </c>
       <c r="P46" t="n">
         <v>1872.284155743751</v>
@@ -7833,25 +7833,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S46" t="n">
-        <v>2024.321847303436</v>
+        <v>1856.300096062672</v>
       </c>
       <c r="T46" t="n">
-        <v>1789.276972616749</v>
+        <v>1726.216004146899</v>
       </c>
       <c r="U46" t="n">
-        <v>1602.171345731766</v>
+        <v>1443.475352833491</v>
       </c>
       <c r="V46" t="n">
-        <v>1328.285600671288</v>
+        <v>1443.475352833491</v>
       </c>
       <c r="W46" t="n">
-        <v>1328.285600671288</v>
+        <v>1164.405688342365</v>
       </c>
       <c r="X46" t="n">
-        <v>1089.941738530972</v>
+        <v>1164.405688342365</v>
       </c>
       <c r="Y46" t="n">
-        <v>865.2060399197364</v>
+        <v>939.6699897311296</v>
       </c>
     </row>
   </sheetData>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.12864625545149</v>
+        <v>29.1286462554515</v>
       </c>
       <c r="K2" t="n">
-        <v>22.89962335916381</v>
+        <v>22.89962335916383</v>
       </c>
       <c r="L2" t="n">
-        <v>13.31283239473387</v>
+        <v>13.31283239473389</v>
       </c>
       <c r="M2" t="n">
         <v>1.857412192921856</v>
@@ -7993,10 +7993,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.455334146684052</v>
+        <v>5.455334146684066</v>
       </c>
       <c r="P2" t="n">
-        <v>18.77004728651482</v>
+        <v>18.77004728651484</v>
       </c>
       <c r="Q2" t="n">
         <v>33.80255651301093</v>
@@ -8139,10 +8139,10 @@
         <v>34.91943921434874</v>
       </c>
       <c r="K4" t="n">
-        <v>25.11327702096816</v>
+        <v>25.11327702096817</v>
       </c>
       <c r="L4" t="n">
-        <v>19.90215841909198</v>
+        <v>19.90215841909199</v>
       </c>
       <c r="M4" t="n">
         <v>19.6511016040668</v>
@@ -8455,7 +8455,7 @@
         <v>30.09747728131218</v>
       </c>
       <c r="K8" t="n">
-        <v>21.58238750890048</v>
+        <v>23.43011358499584</v>
       </c>
       <c r="L8" t="n">
         <v>11.67868484452067</v>
@@ -8467,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>5.483649285431272</v>
+        <v>3.710578808370073</v>
       </c>
       <c r="P8" t="n">
         <v>17.28093897160524</v>
       </c>
       <c r="Q8" t="n">
-        <v>32.68429818395125</v>
+        <v>34.45736866101245</v>
       </c>
       <c r="R8" t="n">
-        <v>55.80008910088142</v>
+        <v>53.95236302478607</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>36.36410528111554</v>
+        <v>36.4387608801497</v>
       </c>
       <c r="K10" t="n">
         <v>26.42133376910127</v>
       </c>
       <c r="L10" t="n">
-        <v>19.21156748094687</v>
+        <v>21.05929355704222</v>
       </c>
       <c r="M10" t="n">
         <v>18.92297028778722</v>
       </c>
       <c r="N10" t="n">
-        <v>15.25858193319224</v>
+        <v>17.03165241025344</v>
       </c>
       <c r="O10" t="n">
-        <v>24.25139617620317</v>
+        <v>22.40367010010781</v>
       </c>
       <c r="P10" t="n">
         <v>26.968289224719</v>
       </c>
       <c r="Q10" t="n">
-        <v>43.25962626275902</v>
+        <v>41.41190018666367</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>13.05159851894229</v>
+        <v>13.0515985189423</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.6962773753561</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>198.7035866504711</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.850990196583361</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8850,16 +8850,16 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L13" t="n">
-        <v>202.8150057014315</v>
+        <v>202.8150057014314</v>
       </c>
       <c r="M13" t="n">
-        <v>165.9895087146922</v>
+        <v>199.0880865758754</v>
       </c>
       <c r="N13" t="n">
-        <v>197.0094259966263</v>
+        <v>77.30929894058623</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -8868,7 +8868,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>127.5494547533709</v>
+        <v>5.787172043465745</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>13.05159851894229</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>48.75194808104205</v>
+        <v>191.9897267353753</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>149.9516385694289</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.850990196583361</v>
+        <v>9.850990196583375</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9087,25 +9087,25 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K16" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>199.0880865758754</v>
       </c>
       <c r="N16" t="n">
-        <v>47.71997910640499</v>
+        <v>157.6014367676751</v>
       </c>
       <c r="O16" t="n">
         <v>209.1244170691992</v>
       </c>
       <c r="P16" t="n">
-        <v>222.367995042289</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.787172043465738</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>13.05159851894228</v>
+        <v>13.05159851894229</v>
       </c>
       <c r="J18" t="n">
-        <v>198.7035866504709</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>198.7035866504706</v>
       </c>
       <c r="R18" t="n">
-        <v>9.850990196583354</v>
+        <v>9.850990196583361</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,25 +9324,25 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K19" t="n">
-        <v>82.35429348095401</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>59.83497017897781</v>
       </c>
       <c r="M19" t="n">
-        <v>199.0880865758755</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>197.0094259966263</v>
+        <v>197.0094259966262</v>
       </c>
       <c r="O19" t="n">
-        <v>209.1244170691992</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>222.3679950422889</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.787172043465731</v>
+        <v>5.787172043465738</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>13.05159851894228</v>
+        <v>13.0515985189423</v>
       </c>
       <c r="J21" t="n">
-        <v>198.7035866504709</v>
+        <v>198.7035866504708</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.850990196583354</v>
+        <v>9.850990196583375</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>65.65794306195595</v>
+        <v>4.512486245846759</v>
       </c>
       <c r="K22" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>135.082113465699</v>
+        <v>143.4997502970632</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>199.0880865758754</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>197.0094259966262</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>209.1244170691992</v>
       </c>
       <c r="P22" t="n">
-        <v>222.367995042289</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>127.5494547533709</v>
+        <v>5.787172043465759</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9713,25 +9713,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>150.3193388037194</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>248.2539792410428</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>235.5356337863143</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>21.28318466657646</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,10 +9795,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>317.1506174091142</v>
@@ -9807,16 +9807,16 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O25" t="n">
-        <v>78.12986811408996</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P25" t="n">
-        <v>263.5328115890082</v>
+        <v>89.58839339659437</v>
       </c>
       <c r="Q25" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>101.1907137812969</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>150.3193388037195</v>
       </c>
       <c r="Q27" t="n">
-        <v>403.8820839126367</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N28" t="n">
-        <v>108.3233934631254</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O28" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P28" t="n">
-        <v>263.5328115890082</v>
+        <v>89.58839339659437</v>
       </c>
       <c r="Q28" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>246.129700984478</v>
+        <v>101.1907137812969</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>235.5356337863143</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>403.8820839126366</v>
       </c>
       <c r="R30" t="n">
-        <v>23.40746292314097</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10272,22 +10272,22 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K31" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N31" t="n">
-        <v>108.3233934631252</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O31" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P31" t="n">
-        <v>263.5328115890082</v>
+        <v>213.531612990382</v>
       </c>
       <c r="Q31" t="n">
         <v>127.5494547533709</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>170.0847972377572</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>396.4490397881976</v>
       </c>
       <c r="R33" t="n">
         <v>88.85829947169823</v>
@@ -10509,7 +10509,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K34" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>317.1506174091142</v>
@@ -10518,16 +10518,16 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O34" t="n">
-        <v>78.12986811408996</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P34" t="n">
-        <v>263.5328115890082</v>
+        <v>23.93045033463852</v>
       </c>
       <c r="Q34" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>150.3193388037194</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>170.0847972377568</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>88.85829947169823</v>
@@ -10749,22 +10749,22 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L37" t="n">
-        <v>317.1506174091142</v>
+        <v>132.7172358389909</v>
       </c>
       <c r="M37" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O37" t="n">
-        <v>78.12986811408996</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P37" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>150.3193388037194</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>101.1907137812964</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>403.8820839126365</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10986,7 +10986,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>348.4508580952379</v>
@@ -10998,10 +10998,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>213.531612990382</v>
       </c>
       <c r="Q40" t="n">
-        <v>23.93045033463805</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>101.1907137812965</v>
+        <v>101.1907137812969</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>403.8820839126365</v>
+        <v>403.8820839126366</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11220,10 +11220,10 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K43" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>348.4508580952379</v>
@@ -11232,10 +11232,10 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P43" t="n">
-        <v>6.274496422708054</v>
+        <v>213.531612990382</v>
       </c>
       <c r="Q43" t="n">
         <v>127.5494547533709</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>150.3193388037195</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>258.9430967094554</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,25 +11454,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>208.3638319047618</v>
       </c>
       <c r="L46" t="n">
-        <v>5.167781085620078</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M46" t="n">
-        <v>348.4508580952379</v>
+        <v>173.981336525081</v>
       </c>
       <c r="N46" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q46" t="n">
         <v>127.5494547533709</v>
@@ -23023,7 +23023,7 @@
         <v>404.2712417917492</v>
       </c>
       <c r="C8" t="n">
-        <v>404.3958676520378</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
         <v>400.41929060787</v>
@@ -23032,7 +23032,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>415.1926307980245</v>
       </c>
       <c r="G8" t="n">
         <v>404.1099319999439</v>
@@ -23077,7 +23077,7 @@
         <v>217.6596635000282</v>
       </c>
       <c r="U8" t="n">
-        <v>254.4474012817928</v>
+        <v>252.5996752056975</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
@@ -23086,7 +23086,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>394.7892377766416</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -23105,7 +23105,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D9" t="n">
-        <v>115.7281862028015</v>
+        <v>114.1007090749767</v>
       </c>
       <c r="E9" t="n">
         <v>119.2878878475953</v>
@@ -23120,7 +23120,7 @@
         <v>67.29547797745488</v>
       </c>
       <c r="I9" t="n">
-        <v>10.75797039379517</v>
+        <v>8.91024431769981</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23153,7 +23153,7 @@
         <v>101.6322018848435</v>
       </c>
       <c r="T9" t="n">
-        <v>154.9756558010089</v>
+        <v>156.6031329288336</v>
       </c>
       <c r="U9" t="n">
         <v>195.3586088644905</v>
@@ -23168,7 +23168,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y9" t="n">
-        <v>155.9602139637129</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="10">
@@ -23229,19 +23229,19 @@
         <v>72.08130398304934</v>
       </c>
       <c r="S10" t="n">
-        <v>178.5286100828844</v>
+        <v>180.3763361589797</v>
       </c>
       <c r="T10" t="n">
-        <v>234.2876790720675</v>
+        <v>236.1354051481628</v>
       </c>
       <c r="U10" t="n">
         <v>278.1094461183281</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>269.2991615337779</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>274.431241770119</v>
       </c>
       <c r="X10" t="n">
         <v>235.9604235189134</v>
@@ -23260,16 +23260,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>159.168706466678</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>153.5646522946855</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>163.3421750150877</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>199.3905424995965</v>
+        <v>169.9654696126648</v>
       </c>
       <c r="G11" t="n">
         <v>403.1614883740475</v>
@@ -23278,7 +23278,7 @@
         <v>292.6473509928666</v>
       </c>
       <c r="I11" t="n">
-        <v>28.44932428539457</v>
+        <v>28.44932428539458</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>100.2138644262831</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>213.5078515276671</v>
@@ -23317,16 +23317,16 @@
         <v>254.3715257917211</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>99.48454080369964</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>262.7069968562133</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>150.0726680082063</v>
       </c>
     </row>
     <row r="12">
@@ -23336,16 +23336,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -23354,7 +23354,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>62.39446264749601</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23393,19 +23393,19 @@
         <v>154.5577046417164</v>
       </c>
       <c r="U12" t="n">
-        <v>195.3252232014799</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>156.3417246547005</v>
+        <v>47.56859658863604</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="13">
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>14.96213980259839</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.9142286143894</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.210852813166</v>
       </c>
       <c r="I13" t="n">
         <v>95.22456288072436</v>
@@ -23475,16 +23475,16 @@
         <v>279.9339664221013</v>
       </c>
       <c r="V13" t="n">
-        <v>100.4647085128196</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>159.2643295546601</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>159.1687064666781</v>
+        <v>188.5937793536098</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>163.3421750150878</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>169.9654696126649</v>
       </c>
       <c r="G14" t="n">
         <v>403.1614883740475</v>
       </c>
       <c r="H14" t="n">
-        <v>292.6473509928666</v>
+        <v>292.6473509928667</v>
       </c>
       <c r="I14" t="n">
-        <v>28.44932428539457</v>
+        <v>28.44932428539459</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23557,13 +23557,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>133.0680595429987</v>
       </c>
       <c r="X14" t="n">
-        <v>179.2073984264843</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>150.0726680082063</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -23576,13 +23576,13 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C15" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23591,7 +23591,7 @@
         <v>105.1286023732147</v>
       </c>
       <c r="H15" t="n">
-        <v>62.394462647496</v>
+        <v>4.126068705694578</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23627,16 +23627,16 @@
         <v>92.20631636151205</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>154.5577046417164</v>
       </c>
       <c r="U15" t="n">
-        <v>67.14646462941165</v>
+        <v>195.3252232014799</v>
       </c>
       <c r="V15" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W15" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>17.83143008563511</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.210852813166</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>95.22456288072436</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>54.579489459994</v>
       </c>
       <c r="S16" t="n">
         <v>172.9620919020575</v>
       </c>
       <c r="T16" t="n">
-        <v>61.9374187463273</v>
+        <v>234.3176196495956</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9339664221013</v>
+        <v>33.07932810891691</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>29.42432953302995</v>
       </c>
       <c r="X16" t="n">
         <v>235.9604235189134</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>159.26432955466</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>217.0431036390044</v>
       </c>
       <c r="D17" t="n">
-        <v>182.9897251816172</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
@@ -23749,10 +23749,10 @@
         <v>403.1614883740475</v>
       </c>
       <c r="H17" t="n">
-        <v>292.6473509928666</v>
+        <v>45.79271267968221</v>
       </c>
       <c r="I17" t="n">
-        <v>28.44932428539456</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,13 +23788,13 @@
         <v>213.5078515276671</v>
       </c>
       <c r="U17" t="n">
-        <v>7.516887478536577</v>
+        <v>7.516887478536688</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>133.0680595429986</v>
+        <v>133.0680595429987</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>132.6551205385437</v>
@@ -23819,10 +23819,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>20.65136194548003</v>
       </c>
       <c r="G18" t="n">
         <v>105.1286023732147</v>
@@ -23861,25 +23861,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>92.20631636151205</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>154.5577046417164</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>2.893346223321828</v>
+        <v>195.3252232014799</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X18" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y18" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23892,25 +23892,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>29.45149870573848</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.210852813166</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>95.22456288072436</v>
+        <v>73.00085086114483</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>54.57948945999399</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>172.9620919020575</v>
       </c>
       <c r="T19" t="n">
         <v>234.3176196495956</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9339664221013</v>
+        <v>33.07932810891691</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
@@ -23958,7 +23958,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>159.2643295546602</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>159.1687064666781</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>163.3421750150877</v>
+        <v>163.3421750150878</v>
       </c>
       <c r="F20" t="n">
-        <v>169.9654696126648</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>156.306850060863</v>
+        <v>285.9457873740779</v>
       </c>
       <c r="H20" t="n">
-        <v>203.8809742782915</v>
+        <v>292.6473509928667</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>28.44932428539459</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24047,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>138.9000023092308</v>
+        <v>63.34763249006218</v>
       </c>
       <c r="C21" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>105.1286023732147</v>
       </c>
       <c r="H21" t="n">
-        <v>62.394462647496</v>
+        <v>62.39446264749601</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24098,10 +24098,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>81.33373419932921</v>
+        <v>92.20631636151205</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>154.5577046417164</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24110,10 +24110,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y21" t="n">
         <v>157.8079400398083</v>
@@ -24132,22 +24132,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.9142286143894</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.210852813166</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>95.22456288072436</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>54.579489459994</v>
       </c>
       <c r="S22" t="n">
         <v>172.9620919020575</v>
       </c>
       <c r="T22" t="n">
-        <v>234.3176196495956</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>96.07102503525152</v>
+        <v>261.5615091631117</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>24.29224929668885</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>375.9271988446511</v>
       </c>
       <c r="F23" t="n">
         <v>416.8201079258493</v>
@@ -24223,7 +24223,7 @@
         <v>402.3145745171349</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U23" t="n">
-        <v>38.48287994636428</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>54.88846861998276</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>37.4979658673368</v>
       </c>
       <c r="S25" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>273.2028921383567</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24448,19 +24448,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
         <v>402.3145745171349</v>
       </c>
       <c r="H26" t="n">
-        <v>283.9738944557603</v>
+        <v>4.89936120706534</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>230.4449557888977</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5343322142292</v>
+        <v>83.23002968197363</v>
       </c>
       <c r="H28" t="n">
         <v>138.8332284553781</v>
       </c>
       <c r="I28" t="n">
-        <v>83.80004204681615</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>37.4979658673368</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U28" t="n">
-        <v>235.3336238391497</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>77.47675216516996</v>
+        <v>169.9840633986234</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
@@ -24691,13 +24691,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H29" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>254.3037726831681</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5343322142292</v>
       </c>
       <c r="H31" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>83.80004204681615</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>37.4979658673368</v>
       </c>
       <c r="S31" t="n">
         <v>166.3415337283568</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>105.0880472280854</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>109.4857589330343</v>
       </c>
     </row>
     <row r="32">
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>0.9723177203875935</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>283.9738944557603</v>
@@ -24970,13 +24970,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>139.9227998327544</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>43.40572813640117</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>37.4979658673368</v>
       </c>
       <c r="S34" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>82.22857004311186</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25159,10 +25159,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>209.8004861190321</v>
       </c>
       <c r="U35" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>36.5068330306388</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>311.6501131694385</v>
       </c>
     </row>
     <row r="36">
@@ -25314,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>106.6349848552013</v>
+        <v>76.03191685878616</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
@@ -25329,10 +25329,10 @@
         <v>164.5343322142292</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>83.80004204681615</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>37.4979658673368</v>
       </c>
       <c r="S37" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H38" t="n">
-        <v>139.6353090956672</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>80.91481491188679</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U38" t="n">
         <v>254.3037726831681</v>
@@ -25456,10 +25456,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>71.7991415007719</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>156.1955972474681</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>188.731069118342</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>272.0963591853599</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>47.65247489724158</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>37.4979658673368</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>159.9994604414059</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>60.33326296338964</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -25854,7 +25854,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>77.47675216517</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H44" t="n">
         <v>283.9738944557603</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>80.91481491188679</v>
+        <v>80.91481491188677</v>
       </c>
       <c r="T44" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.3037726831681</v>
+        <v>139.2664364502348</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>83.80004204681615</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>37.4979658673368</v>
+        <v>37.49796586733679</v>
       </c>
       <c r="S46" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>103.9111749432051</v>
       </c>
       <c r="U46" t="n">
-        <v>94.67867418414127</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>137968.614603446</v>
+        <v>137968.6146034459</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>323086.5432666737</v>
+        <v>323086.5432666735</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>323086.5432666737</v>
+        <v>323086.5432666736</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>525818.1501180026</v>
+        <v>525818.1501180024</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>525818.1501180026</v>
+        <v>525818.1501180027</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>525818.1501180023</v>
+        <v>525818.1501180024</v>
       </c>
     </row>
     <row r="15">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50798.08777278634</v>
+        <v>50798.08777278635</v>
       </c>
       <c r="C2" t="n">
-        <v>50798.08777278634</v>
+        <v>50798.08777278631</v>
       </c>
       <c r="D2" t="n">
-        <v>51367.20197674919</v>
+        <v>51367.20197674921</v>
       </c>
       <c r="E2" t="n">
-        <v>124816.5990741908</v>
+        <v>124816.5990741909</v>
       </c>
       <c r="F2" t="n">
         <v>124816.5990741908</v>
       </c>
       <c r="G2" t="n">
-        <v>124816.5990741909</v>
+        <v>124816.5990741908</v>
       </c>
       <c r="H2" t="n">
-        <v>124816.5990741909</v>
+        <v>124816.5990741908</v>
       </c>
       <c r="I2" t="n">
         <v>201490.9183095237</v>
@@ -26340,22 +26340,22 @@
         <v>201490.9183095237</v>
       </c>
       <c r="K2" t="n">
-        <v>201490.9183095236</v>
+        <v>201490.9183095237</v>
       </c>
       <c r="L2" t="n">
+        <v>201490.9183095238</v>
+      </c>
+      <c r="M2" t="n">
         <v>201490.9183095237</v>
       </c>
-      <c r="M2" t="n">
-        <v>201490.9183095236</v>
-      </c>
       <c r="N2" t="n">
-        <v>201490.9183095236</v>
+        <v>201490.9183095237</v>
       </c>
       <c r="O2" t="n">
-        <v>201490.9183095236</v>
+        <v>201490.9183095237</v>
       </c>
       <c r="P2" t="n">
-        <v>201490.9183095236</v>
+        <v>201490.9183095237</v>
       </c>
     </row>
     <row r="3">
@@ -26371,22 +26371,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2779.984380914592</v>
+        <v>2779.984380914617</v>
       </c>
       <c r="E3" t="n">
-        <v>262696.8093679498</v>
+        <v>262696.8093679497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>9.374401997774843e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>227515.0879849964</v>
+        <v>227515.0879849966</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>467.6428403250461</v>
       </c>
       <c r="M3" t="n">
-        <v>61056.70255713157</v>
+        <v>61056.70255713156</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9749.421845857492</v>
+        <v>9749.421845857498</v>
       </c>
       <c r="C4" t="n">
-        <v>9749.421845857492</v>
+        <v>9749.421845857494</v>
       </c>
       <c r="D4" t="n">
-        <v>9552.211920039492</v>
+        <v>9552.211920039494</v>
       </c>
       <c r="E4" t="n">
-        <v>11259.1059548323</v>
+        <v>11259.10595483229</v>
       </c>
       <c r="F4" t="n">
         <v>11259.10595483229</v>
       </c>
       <c r="G4" t="n">
-        <v>11259.1059548323</v>
+        <v>11259.10595483229</v>
       </c>
       <c r="H4" t="n">
         <v>11259.10595483229</v>
@@ -26444,19 +26444,19 @@
         <v>22529.70278345436</v>
       </c>
       <c r="K4" t="n">
-        <v>22529.70278345435</v>
+        <v>22529.70278345436</v>
       </c>
       <c r="L4" t="n">
         <v>22529.70278345436</v>
       </c>
       <c r="M4" t="n">
-        <v>22529.70278345435</v>
+        <v>22529.70278345436</v>
       </c>
       <c r="N4" t="n">
-        <v>22529.70278345434</v>
+        <v>22529.70278345436</v>
       </c>
       <c r="O4" t="n">
-        <v>22529.70278345434</v>
+        <v>22529.70278345436</v>
       </c>
       <c r="P4" t="n">
         <v>22529.70278345436</v>
@@ -26481,13 +26481,13 @@
         <v>23031.79054479807</v>
       </c>
       <c r="F5" t="n">
-        <v>23031.79054479807</v>
+        <v>23031.79054479806</v>
       </c>
       <c r="G5" t="n">
-        <v>23031.79054479807</v>
+        <v>23031.79054479806</v>
       </c>
       <c r="H5" t="n">
-        <v>23031.79054479807</v>
+        <v>23031.79054479806</v>
       </c>
       <c r="I5" t="n">
         <v>43385.32273194158</v>
@@ -26505,10 +26505,10 @@
         <v>43385.32273194158</v>
       </c>
       <c r="N5" t="n">
-        <v>43385.32273194157</v>
+        <v>43385.32273194158</v>
       </c>
       <c r="O5" t="n">
-        <v>43385.32273194157</v>
+        <v>43385.32273194158</v>
       </c>
       <c r="P5" t="n">
         <v>43385.32273194158</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-120217.1085585149</v>
+        <v>-121591.9420499755</v>
       </c>
       <c r="C6" t="n">
-        <v>4597.364388809634</v>
+        <v>3222.530897348967</v>
       </c>
       <c r="D6" t="n">
-        <v>2415.2080673413</v>
+        <v>1043.220146900462</v>
       </c>
       <c r="E6" t="n">
-        <v>-172171.1067933893</v>
+        <v>-173175.8477283428</v>
       </c>
       <c r="F6" t="n">
-        <v>90525.70257456045</v>
+        <v>89520.96163960684</v>
       </c>
       <c r="G6" t="n">
-        <v>90525.70257456049</v>
+        <v>89520.96163960674</v>
       </c>
       <c r="H6" t="n">
-        <v>90525.70257456051</v>
+        <v>89520.96163960682</v>
       </c>
       <c r="I6" t="n">
-        <v>-91939.19519086866</v>
+        <v>-92560.56452964581</v>
       </c>
       <c r="J6" t="n">
-        <v>135575.8927941278</v>
+        <v>134954.5234553508</v>
       </c>
       <c r="K6" t="n">
-        <v>135575.8927941277</v>
+        <v>134954.5234553508</v>
       </c>
       <c r="L6" t="n">
-        <v>135108.2499538027</v>
+        <v>134486.8806150259</v>
       </c>
       <c r="M6" t="n">
-        <v>74519.19023699613</v>
+        <v>73897.82089821922</v>
       </c>
       <c r="N6" t="n">
-        <v>135575.8927941277</v>
+        <v>134954.5234553508</v>
       </c>
       <c r="O6" t="n">
-        <v>135575.8927941277</v>
+        <v>134954.5234553508</v>
       </c>
       <c r="P6" t="n">
-        <v>135575.8927941277</v>
+        <v>134954.5234553508</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>132.1034799553768</v>
       </c>
       <c r="E3" t="n">
-        <v>368.028831897085</v>
+        <v>368.0288318970849</v>
       </c>
       <c r="F3" t="n">
-        <v>368.028831897085</v>
+        <v>368.0288318970848</v>
       </c>
       <c r="G3" t="n">
         <v>368.028831897085</v>
       </c>
       <c r="H3" t="n">
-        <v>368.028831897085</v>
+        <v>368.0288318970848</v>
       </c>
       <c r="I3" t="n">
         <v>578.6986538040985</v>
@@ -26779,7 +26779,7 @@
         <v>578.6986538040985</v>
       </c>
       <c r="P3" t="n">
-        <v>578.6986538040985</v>
+        <v>578.6986538040986</v>
       </c>
     </row>
     <row r="4">
@@ -26801,13 +26801,13 @@
         <v>246.8546383131845</v>
       </c>
       <c r="F4" t="n">
-        <v>246.8546383131845</v>
+        <v>246.8546383131844</v>
       </c>
       <c r="G4" t="n">
-        <v>246.8546383131845</v>
+        <v>246.8546383131844</v>
       </c>
       <c r="H4" t="n">
-        <v>246.8546383131845</v>
+        <v>246.8546383131844</v>
       </c>
       <c r="I4" t="n">
         <v>506.0804618258591</v>
@@ -26825,10 +26825,10 @@
         <v>506.0804618258591</v>
       </c>
       <c r="N4" t="n">
-        <v>506.0804618258589</v>
+        <v>506.0804618258591</v>
       </c>
       <c r="O4" t="n">
-        <v>506.0804618258589</v>
+        <v>506.0804618258591</v>
       </c>
       <c r="P4" t="n">
         <v>506.0804618258591</v>
@@ -26965,22 +26965,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.575886463669548</v>
+        <v>2.575886463669576</v>
       </c>
       <c r="E3" t="n">
-        <v>235.9253519417081</v>
+        <v>235.925351941708</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.205731028013953e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>210.6698219070135</v>
+        <v>210.6698219070137</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>1.847726076095356</v>
       </c>
       <c r="E4" t="n">
-        <v>245.0069122370892</v>
+        <v>245.0069122370891</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>259.2258235126745</v>
+        <v>259.2258235126747</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>1.847726076095341</v>
       </c>
       <c r="M4" t="n">
-        <v>245.0069122370892</v>
+        <v>245.0069122370891</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>1.847726076095356</v>
       </c>
       <c r="M4" t="n">
-        <v>245.0069122370892</v>
+        <v>245.0069122370891</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,10 +31041,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.520713943685255</v>
+        <v>0.5207139436852549</v>
       </c>
       <c r="H2" t="n">
-        <v>5.332761675766619</v>
+        <v>5.332761675766618</v>
       </c>
       <c r="I2" t="n">
         <v>20.07482431392581</v>
@@ -31053,25 +31053,25 @@
         <v>44.19494507785645</v>
       </c>
       <c r="K2" t="n">
-        <v>66.23676631405331</v>
+        <v>66.2367663140533</v>
       </c>
       <c r="L2" t="n">
-        <v>82.17256566811095</v>
+        <v>82.17256566811093</v>
       </c>
       <c r="M2" t="n">
         <v>91.4328122641236</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661934</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>87.73444147909908</v>
+        <v>87.73444147909906</v>
       </c>
       <c r="P2" t="n">
-        <v>74.87931599436934</v>
+        <v>74.87931599436932</v>
       </c>
       <c r="Q2" t="n">
-        <v>56.23124788614112</v>
+        <v>56.23124788614111</v>
       </c>
       <c r="R2" t="n">
         <v>32.70929726501893</v>
@@ -31120,7 +31120,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2786065218500874</v>
+        <v>0.2786065218500873</v>
       </c>
       <c r="H3" t="n">
         <v>2.690752461025844</v>
@@ -31153,7 +31153,7 @@
         <v>35.56387812247782</v>
       </c>
       <c r="R3" t="n">
-        <v>17.29804352328877</v>
+        <v>17.29804352328876</v>
       </c>
       <c r="S3" t="n">
         <v>5.174993947522452</v>
@@ -31162,7 +31162,7 @@
         <v>1.122979796404518</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01832937643750576</v>
+        <v>0.01832937643750575</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>2.076688302211308</v>
       </c>
       <c r="I4" t="n">
-        <v>7.024217692960128</v>
+        <v>7.024217692960127</v>
       </c>
       <c r="J4" t="n">
         <v>16.51370646860668</v>
@@ -31217,19 +31217,19 @@
         <v>34.72613547480952</v>
       </c>
       <c r="M4" t="n">
-        <v>36.61384089471325</v>
+        <v>36.61384089471324</v>
       </c>
       <c r="N4" t="n">
         <v>35.74324559419524</v>
       </c>
       <c r="O4" t="n">
-        <v>33.0146725181814</v>
+        <v>33.01467251818139</v>
       </c>
       <c r="P4" t="n">
         <v>28.24975580022414</v>
       </c>
       <c r="Q4" t="n">
-        <v>19.5586666172478</v>
+        <v>19.55866661724779</v>
       </c>
       <c r="R4" t="n">
         <v>10.50235208868826</v>
@@ -31238,7 +31238,7 @@
         <v>4.070563880714799</v>
       </c>
       <c r="T4" t="n">
-        <v>0.9979994908377442</v>
+        <v>0.9979994908377441</v>
       </c>
       <c r="U4" t="n">
         <v>0.01274041903197122</v>
@@ -31612,13 +31612,13 @@
         <v>57.96224988694441</v>
       </c>
       <c r="M9" t="n">
-        <v>59.41200981451278</v>
+        <v>59.33735421547862</v>
       </c>
       <c r="N9" t="n">
         <v>55.04111946984535</v>
       </c>
       <c r="O9" t="n">
-        <v>59.5245494770612</v>
+        <v>59.59920507609535</v>
       </c>
       <c r="P9" t="n">
         <v>54.25963500280375</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.479512892048582</v>
+        <v>1.479512892048581</v>
       </c>
       <c r="H11" t="n">
         <v>15.15206140569254</v>
       </c>
       <c r="I11" t="n">
-        <v>57.038920770703</v>
+        <v>57.03892077070299</v>
       </c>
       <c r="J11" t="n">
         <v>125.5718073215084</v>
@@ -31776,22 +31776,22 @@
         <v>263.9931841104587</v>
       </c>
       <c r="O11" t="n">
-        <v>249.2812777901507</v>
+        <v>249.2812777901506</v>
       </c>
       <c r="P11" t="n">
-        <v>212.7558032677013</v>
+        <v>212.7558032677012</v>
       </c>
       <c r="Q11" t="n">
         <v>159.7707478212114</v>
       </c>
       <c r="R11" t="n">
-        <v>92.9374517051468</v>
+        <v>92.93745170514678</v>
       </c>
       <c r="S11" t="n">
-        <v>33.71440002755709</v>
+        <v>33.71440002755708</v>
       </c>
       <c r="T11" t="n">
-        <v>6.476567684942669</v>
+        <v>6.476567684942668</v>
       </c>
       <c r="U11" t="n">
         <v>0.1183610313638865</v>
@@ -31831,13 +31831,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7916091855899563</v>
+        <v>0.7916091855899562</v>
       </c>
       <c r="H12" t="n">
-        <v>7.645278187145106</v>
+        <v>7.645278187145105</v>
       </c>
       <c r="I12" t="n">
-        <v>27.25496538105771</v>
+        <v>27.2549653810577</v>
       </c>
       <c r="J12" t="n">
         <v>74.7897081876897</v>
@@ -31849,7 +31849,7 @@
         <v>171.8798804062754</v>
       </c>
       <c r="M12" t="n">
-        <v>200.5757133839113</v>
+        <v>200.5757133839112</v>
       </c>
       <c r="N12" t="n">
         <v>205.8843556855211</v>
@@ -31864,16 +31864,16 @@
         <v>101.0482181465355</v>
       </c>
       <c r="R12" t="n">
-        <v>49.14920890882205</v>
+        <v>49.14920890882204</v>
       </c>
       <c r="S12" t="n">
-        <v>14.70379342532221</v>
+        <v>14.7037934253222</v>
       </c>
       <c r="T12" t="n">
-        <v>3.190740533145481</v>
+        <v>3.19074053314548</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05207955168354978</v>
+        <v>0.05207955168354977</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,22 +31910,22 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6636585493226121</v>
+        <v>0.663658549322612</v>
       </c>
       <c r="H13" t="n">
-        <v>5.900527829431956</v>
+        <v>5.900527829431955</v>
       </c>
       <c r="I13" t="n">
         <v>19.95802255599274</v>
       </c>
       <c r="J13" t="n">
-        <v>46.92065943710868</v>
+        <v>46.92065943710867</v>
       </c>
       <c r="K13" t="n">
-        <v>77.10505691220892</v>
+        <v>77.10505691220891</v>
       </c>
       <c r="L13" t="n">
-        <v>98.66792650565455</v>
+        <v>98.66792650565453</v>
       </c>
       <c r="M13" t="n">
         <v>104.0314942360891</v>
@@ -31934,13 +31934,13 @@
         <v>101.5578578249776</v>
       </c>
       <c r="O13" t="n">
-        <v>93.80511931698162</v>
+        <v>93.8051193169816</v>
       </c>
       <c r="P13" t="n">
-        <v>80.26648491080026</v>
+        <v>80.26648491080024</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.57235361645983</v>
+        <v>55.57235361645982</v>
       </c>
       <c r="R13" t="n">
         <v>29.84050168136035</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.479512892048582</v>
+        <v>1.479512892048581</v>
       </c>
       <c r="H14" t="n">
         <v>15.15206140569254</v>
       </c>
       <c r="I14" t="n">
-        <v>57.038920770703</v>
+        <v>57.03892077070298</v>
       </c>
       <c r="J14" t="n">
         <v>125.5718073215084</v>
@@ -32007,28 +32007,28 @@
         <v>233.4782307119567</v>
       </c>
       <c r="M14" t="n">
-        <v>259.7895181059257</v>
+        <v>259.7895181059256</v>
       </c>
       <c r="N14" t="n">
         <v>263.9931841104587</v>
       </c>
       <c r="O14" t="n">
-        <v>249.2812777901507</v>
+        <v>249.2812777901506</v>
       </c>
       <c r="P14" t="n">
-        <v>212.7558032677013</v>
+        <v>212.7558032677012</v>
       </c>
       <c r="Q14" t="n">
-        <v>159.7707478212114</v>
+        <v>159.7707478212113</v>
       </c>
       <c r="R14" t="n">
-        <v>92.9374517051468</v>
+        <v>92.93745170514677</v>
       </c>
       <c r="S14" t="n">
-        <v>33.71440002755709</v>
+        <v>33.71440002755708</v>
       </c>
       <c r="T14" t="n">
-        <v>6.476567684942669</v>
+        <v>6.476567684942667</v>
       </c>
       <c r="U14" t="n">
         <v>0.1183610313638865</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7916091855899563</v>
+        <v>0.7916091855899561</v>
       </c>
       <c r="H15" t="n">
-        <v>7.645278187145106</v>
+        <v>7.645278187145103</v>
       </c>
       <c r="I15" t="n">
-        <v>27.25496538105771</v>
+        <v>27.2549653810577</v>
       </c>
       <c r="J15" t="n">
-        <v>74.7897081876897</v>
+        <v>74.78970818768968</v>
       </c>
       <c r="K15" t="n">
-        <v>127.8275236222168</v>
+        <v>127.8275236222167</v>
       </c>
       <c r="L15" t="n">
         <v>171.8798804062754</v>
       </c>
       <c r="M15" t="n">
-        <v>200.5757133839113</v>
+        <v>200.5757133839112</v>
       </c>
       <c r="N15" t="n">
         <v>205.8843556855211</v>
       </c>
       <c r="O15" t="n">
-        <v>188.3439626785016</v>
+        <v>188.3439626785015</v>
       </c>
       <c r="P15" t="n">
         <v>151.1626347465593</v>
@@ -32101,16 +32101,16 @@
         <v>101.0482181465355</v>
       </c>
       <c r="R15" t="n">
-        <v>49.14920890882205</v>
+        <v>49.14920890882203</v>
       </c>
       <c r="S15" t="n">
-        <v>14.70379342532221</v>
+        <v>14.7037934253222</v>
       </c>
       <c r="T15" t="n">
-        <v>3.190740533145481</v>
+        <v>3.19074053314548</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05207955168354978</v>
+        <v>0.05207955168354977</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,22 +32147,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6636585493226121</v>
+        <v>0.6636585493226119</v>
       </c>
       <c r="H16" t="n">
-        <v>5.900527829431956</v>
+        <v>5.900527829431954</v>
       </c>
       <c r="I16" t="n">
         <v>19.95802255599274</v>
       </c>
       <c r="J16" t="n">
-        <v>46.92065943710868</v>
+        <v>46.92065943710866</v>
       </c>
       <c r="K16" t="n">
-        <v>77.10505691220892</v>
+        <v>77.10505691220889</v>
       </c>
       <c r="L16" t="n">
-        <v>98.66792650565455</v>
+        <v>98.66792650565452</v>
       </c>
       <c r="M16" t="n">
         <v>104.0314942360891</v>
@@ -32171,22 +32171,22 @@
         <v>101.5578578249776</v>
       </c>
       <c r="O16" t="n">
-        <v>93.80511931698162</v>
+        <v>93.80511931698159</v>
       </c>
       <c r="P16" t="n">
-        <v>80.26648491080026</v>
+        <v>80.26648491080023</v>
       </c>
       <c r="Q16" t="n">
-        <v>55.57235361645983</v>
+        <v>55.57235361645981</v>
       </c>
       <c r="R16" t="n">
-        <v>29.84050168136035</v>
+        <v>29.84050168136034</v>
       </c>
       <c r="S16" t="n">
-        <v>11.56575853683134</v>
+        <v>11.56575853683133</v>
       </c>
       <c r="T16" t="n">
-        <v>2.835631983469342</v>
+        <v>2.835631983469341</v>
       </c>
       <c r="U16" t="n">
         <v>0.03619955723577888</v>
@@ -32232,22 +32232,22 @@
         <v>15.15206140569254</v>
       </c>
       <c r="I17" t="n">
-        <v>57.03892077070301</v>
+        <v>57.038920770703</v>
       </c>
       <c r="J17" t="n">
         <v>125.5718073215084</v>
       </c>
       <c r="K17" t="n">
-        <v>188.199588041925</v>
+        <v>188.1995880419249</v>
       </c>
       <c r="L17" t="n">
-        <v>233.4782307119568</v>
+        <v>233.4782307119567</v>
       </c>
       <c r="M17" t="n">
         <v>259.7895181059257</v>
       </c>
       <c r="N17" t="n">
-        <v>263.9931841104588</v>
+        <v>263.9931841104587</v>
       </c>
       <c r="O17" t="n">
         <v>249.2812777901507</v>
@@ -32259,13 +32259,13 @@
         <v>159.7707478212114</v>
       </c>
       <c r="R17" t="n">
-        <v>92.93745170514681</v>
+        <v>92.9374517051468</v>
       </c>
       <c r="S17" t="n">
         <v>33.71440002755709</v>
       </c>
       <c r="T17" t="n">
-        <v>6.476567684942671</v>
+        <v>6.476567684942669</v>
       </c>
       <c r="U17" t="n">
         <v>0.1183610313638865</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7916091855899565</v>
+        <v>0.7916091855899563</v>
       </c>
       <c r="H18" t="n">
-        <v>7.645278187145107</v>
+        <v>7.645278187145106</v>
       </c>
       <c r="I18" t="n">
-        <v>27.25496538105772</v>
+        <v>27.25496538105771</v>
       </c>
       <c r="J18" t="n">
-        <v>74.78970818768971</v>
+        <v>74.7897081876897</v>
       </c>
       <c r="K18" t="n">
         <v>127.8275236222168</v>
@@ -32326,7 +32326,7 @@
         <v>200.5757133839113</v>
       </c>
       <c r="N18" t="n">
-        <v>205.8843556855212</v>
+        <v>205.8843556855211</v>
       </c>
       <c r="O18" t="n">
         <v>188.3439626785016</v>
@@ -32347,7 +32347,7 @@
         <v>3.190740533145481</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05207955168354979</v>
+        <v>0.05207955168354978</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6636585493226123</v>
+        <v>0.6636585493226121</v>
       </c>
       <c r="H19" t="n">
-        <v>5.900527829431957</v>
+        <v>5.900527829431956</v>
       </c>
       <c r="I19" t="n">
         <v>19.95802255599274</v>
@@ -32396,10 +32396,10 @@
         <v>46.92065943710868</v>
       </c>
       <c r="K19" t="n">
-        <v>77.10505691220894</v>
+        <v>77.10505691220892</v>
       </c>
       <c r="L19" t="n">
-        <v>98.66792650565456</v>
+        <v>98.66792650565455</v>
       </c>
       <c r="M19" t="n">
         <v>104.0314942360891</v>
@@ -32408,25 +32408,25 @@
         <v>101.5578578249776</v>
       </c>
       <c r="O19" t="n">
-        <v>93.80511931698163</v>
+        <v>93.80511931698162</v>
       </c>
       <c r="P19" t="n">
-        <v>80.26648491080027</v>
+        <v>80.26648491080026</v>
       </c>
       <c r="Q19" t="n">
-        <v>55.57235361645984</v>
+        <v>55.57235361645983</v>
       </c>
       <c r="R19" t="n">
-        <v>29.84050168136036</v>
+        <v>29.84050168136035</v>
       </c>
       <c r="S19" t="n">
         <v>11.56575853683134</v>
       </c>
       <c r="T19" t="n">
-        <v>2.835631983469343</v>
+        <v>2.835631983469342</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03619955723577889</v>
+        <v>0.03619955723577888</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,46 +32463,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.479512892048582</v>
+        <v>1.479512892048581</v>
       </c>
       <c r="H20" t="n">
         <v>15.15206140569254</v>
       </c>
       <c r="I20" t="n">
-        <v>57.03892077070301</v>
+        <v>57.03892077070298</v>
       </c>
       <c r="J20" t="n">
         <v>125.5718073215084</v>
       </c>
       <c r="K20" t="n">
-        <v>188.199588041925</v>
+        <v>188.1995880419249</v>
       </c>
       <c r="L20" t="n">
-        <v>233.4782307119568</v>
+        <v>233.4782307119567</v>
       </c>
       <c r="M20" t="n">
-        <v>259.7895181059257</v>
+        <v>259.7895181059256</v>
       </c>
       <c r="N20" t="n">
-        <v>263.9931841104588</v>
+        <v>263.9931841104587</v>
       </c>
       <c r="O20" t="n">
-        <v>249.2812777901507</v>
+        <v>249.2812777901506</v>
       </c>
       <c r="P20" t="n">
-        <v>212.7558032677013</v>
+        <v>212.7558032677012</v>
       </c>
       <c r="Q20" t="n">
-        <v>159.7707478212114</v>
+        <v>159.7707478212113</v>
       </c>
       <c r="R20" t="n">
-        <v>92.93745170514681</v>
+        <v>92.93745170514677</v>
       </c>
       <c r="S20" t="n">
-        <v>33.71440002755709</v>
+        <v>33.71440002755708</v>
       </c>
       <c r="T20" t="n">
-        <v>6.476567684942671</v>
+        <v>6.476567684942667</v>
       </c>
       <c r="U20" t="n">
         <v>0.1183610313638865</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7916091855899565</v>
+        <v>0.7916091855899561</v>
       </c>
       <c r="H21" t="n">
-        <v>7.645278187145107</v>
+        <v>7.645278187145103</v>
       </c>
       <c r="I21" t="n">
-        <v>27.25496538105772</v>
+        <v>27.2549653810577</v>
       </c>
       <c r="J21" t="n">
-        <v>74.78970818768971</v>
+        <v>74.78970818768968</v>
       </c>
       <c r="K21" t="n">
-        <v>127.8275236222168</v>
+        <v>127.8275236222167</v>
       </c>
       <c r="L21" t="n">
         <v>171.8798804062754</v>
       </c>
       <c r="M21" t="n">
-        <v>200.5757133839113</v>
+        <v>200.5757133839112</v>
       </c>
       <c r="N21" t="n">
-        <v>205.8843556855212</v>
+        <v>205.8843556855211</v>
       </c>
       <c r="O21" t="n">
-        <v>188.3439626785016</v>
+        <v>188.3439626785015</v>
       </c>
       <c r="P21" t="n">
         <v>151.1626347465593</v>
@@ -32575,16 +32575,16 @@
         <v>101.0482181465355</v>
       </c>
       <c r="R21" t="n">
-        <v>49.14920890882205</v>
+        <v>49.14920890882203</v>
       </c>
       <c r="S21" t="n">
-        <v>14.70379342532221</v>
+        <v>14.7037934253222</v>
       </c>
       <c r="T21" t="n">
-        <v>3.190740533145481</v>
+        <v>3.19074053314548</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05207955168354979</v>
+        <v>0.05207955168354977</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,22 +32621,22 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6636585493226123</v>
+        <v>0.6636585493226119</v>
       </c>
       <c r="H22" t="n">
-        <v>5.900527829431957</v>
+        <v>5.900527829431954</v>
       </c>
       <c r="I22" t="n">
         <v>19.95802255599274</v>
       </c>
       <c r="J22" t="n">
-        <v>46.92065943710868</v>
+        <v>46.92065943710866</v>
       </c>
       <c r="K22" t="n">
-        <v>77.10505691220894</v>
+        <v>77.10505691220889</v>
       </c>
       <c r="L22" t="n">
-        <v>98.66792650565456</v>
+        <v>98.66792650565452</v>
       </c>
       <c r="M22" t="n">
         <v>104.0314942360891</v>
@@ -32645,25 +32645,25 @@
         <v>101.5578578249776</v>
       </c>
       <c r="O22" t="n">
-        <v>93.80511931698163</v>
+        <v>93.80511931698159</v>
       </c>
       <c r="P22" t="n">
-        <v>80.26648491080027</v>
+        <v>80.26648491080023</v>
       </c>
       <c r="Q22" t="n">
-        <v>55.57235361645984</v>
+        <v>55.57235361645981</v>
       </c>
       <c r="R22" t="n">
-        <v>29.84050168136036</v>
+        <v>29.84050168136034</v>
       </c>
       <c r="S22" t="n">
-        <v>11.56575853683134</v>
+        <v>11.56575853683133</v>
       </c>
       <c r="T22" t="n">
-        <v>2.835631983469343</v>
+        <v>2.835631983469341</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03619955723577889</v>
+        <v>0.03619955723577888</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34359,31 +34359,31 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.326426748961198</v>
+        <v>2.326426748961199</v>
       </c>
       <c r="H44" t="n">
         <v>23.82551794279888</v>
       </c>
       <c r="I44" t="n">
-        <v>89.68956723932668</v>
+        <v>89.68956723932671</v>
       </c>
       <c r="J44" t="n">
-        <v>197.4525622846459</v>
+        <v>197.4525622846457</v>
       </c>
       <c r="K44" t="n">
         <v>295.9302065681733</v>
       </c>
       <c r="L44" t="n">
-        <v>367.1275891866946</v>
+        <v>367.1275891866947</v>
       </c>
       <c r="M44" t="n">
-        <v>408.5001808835333</v>
+        <v>408.5001808835334</v>
       </c>
       <c r="N44" t="n">
         <v>415.1101408840194</v>
       </c>
       <c r="O44" t="n">
-        <v>391.9767348990364</v>
+        <v>391.9767348990365</v>
       </c>
       <c r="P44" t="n">
         <v>334.5430745340568</v>
@@ -34395,7 +34395,7 @@
         <v>146.137404269434</v>
       </c>
       <c r="S44" t="n">
-        <v>53.01344954195336</v>
+        <v>53.01344954195337</v>
       </c>
       <c r="T44" t="n">
         <v>10.18393309357765</v>
@@ -34441,10 +34441,10 @@
         <v>1.244748047805042</v>
       </c>
       <c r="H45" t="n">
-        <v>12.0216456195908</v>
+        <v>12.02164561959081</v>
       </c>
       <c r="I45" t="n">
-        <v>42.85645690907711</v>
+        <v>42.85645690907712</v>
       </c>
       <c r="J45" t="n">
         <v>117.601393411265</v>
@@ -34453,34 +34453,34 @@
         <v>200.9995126142028</v>
       </c>
       <c r="L45" t="n">
-        <v>270.2686495903009</v>
+        <v>270.268649590301</v>
       </c>
       <c r="M45" t="n">
         <v>315.3907663232337</v>
       </c>
       <c r="N45" t="n">
-        <v>323.7382214332947</v>
+        <v>323.7382214332948</v>
       </c>
       <c r="O45" t="n">
         <v>296.1572252161409</v>
       </c>
       <c r="P45" t="n">
-        <v>237.69228291814</v>
+        <v>237.6922829181401</v>
       </c>
       <c r="Q45" t="n">
         <v>158.8909964180612</v>
       </c>
       <c r="R45" t="n">
-        <v>77.28356738915869</v>
+        <v>77.28356738915872</v>
       </c>
       <c r="S45" t="n">
-        <v>23.12064904585241</v>
+        <v>23.12064904585242</v>
       </c>
       <c r="T45" t="n">
-        <v>5.017208140056287</v>
+        <v>5.017208140056288</v>
       </c>
       <c r="U45" t="n">
-        <v>0.08189131893454228</v>
+        <v>0.0818913189345423</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.0435549494828</v>
+        <v>1.043554949482801</v>
       </c>
       <c r="H46" t="n">
-        <v>9.278152187219815</v>
+        <v>9.278152187219817</v>
       </c>
       <c r="I46" t="n">
         <v>31.38254338990096</v>
       </c>
       <c r="J46" t="n">
-        <v>73.779334928434</v>
+        <v>73.77933492843401</v>
       </c>
       <c r="K46" t="n">
         <v>121.2421114035472</v>
@@ -34535,10 +34535,10 @@
         <v>155.1481603985611</v>
       </c>
       <c r="M46" t="n">
-        <v>163.5819817630175</v>
+        <v>163.5819817630176</v>
       </c>
       <c r="N46" t="n">
-        <v>159.6923678603999</v>
+        <v>159.6923678604</v>
       </c>
       <c r="O46" t="n">
         <v>147.5017486778054</v>
@@ -34547,19 +34547,19 @@
         <v>126.2132277083561</v>
       </c>
       <c r="Q46" t="n">
-        <v>87.38349672441888</v>
+        <v>87.38349672441889</v>
       </c>
       <c r="R46" t="n">
-        <v>46.92202527401754</v>
+        <v>46.92202527401756</v>
       </c>
       <c r="S46" t="n">
-        <v>18.18631671053207</v>
+        <v>18.18631671053208</v>
       </c>
       <c r="T46" t="n">
-        <v>4.458825693244692</v>
+        <v>4.458825693244693</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05692117906269827</v>
+        <v>0.05692117906269829</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>1.847726076095356</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1.847726076095356</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35187,16 +35187,16 @@
         <v>1.847726076095356</v>
       </c>
       <c r="O8" t="n">
-        <v>1.773070477061199</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>1.7730704770612</v>
       </c>
       <c r="R8" t="n">
-        <v>1.847726076095356</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35260,13 +35260,13 @@
         <v>1.847726076095356</v>
       </c>
       <c r="M9" t="n">
-        <v>1.847726076095356</v>
+        <v>1.7730704770612</v>
       </c>
       <c r="N9" t="n">
         <v>1.847726076095356</v>
       </c>
       <c r="O9" t="n">
-        <v>1.7730704770612</v>
+        <v>1.847726076095356</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1.7730704770612</v>
+        <v>1.847726076095356</v>
       </c>
       <c r="K10" t="n">
         <v>1.847726076095356</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.847726076095356</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1.7730704770612</v>
       </c>
       <c r="O10" t="n">
-        <v>1.847726076095356</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.847726076095356</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,16 +35409,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>52.24821598820047</v>
+        <v>52.24821598820046</v>
       </c>
       <c r="K11" t="n">
-        <v>99.0631983687078</v>
+        <v>99.06319836870777</v>
       </c>
       <c r="L11" t="n">
         <v>137.9928326491119</v>
       </c>
       <c r="M11" t="n">
-        <v>166.4992936488803</v>
+        <v>166.4992936488802</v>
       </c>
       <c r="N11" t="n">
         <v>171.0808933538394</v>
@@ -35430,10 +35430,10 @@
         <v>119.1064399868171</v>
       </c>
       <c r="Q11" t="n">
-        <v>69.73694342205934</v>
+        <v>69.73694342205931</v>
       </c>
       <c r="R11" t="n">
-        <v>5.625308890423284</v>
+        <v>5.62530889042327</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>23.42046938768969</v>
+        <v>143.1167467630457</v>
       </c>
       <c r="K12" t="n">
         <v>72.00174083760137</v>
       </c>
       <c r="L12" t="n">
-        <v>115.7653565954264</v>
+        <v>115.7653565954263</v>
       </c>
       <c r="M12" t="n">
         <v>143.0114296454938</v>
@@ -35506,13 +35506,13 @@
         <v>130.5924836785016</v>
       </c>
       <c r="P12" t="n">
-        <v>96.90299974375557</v>
+        <v>96.90299974375554</v>
       </c>
       <c r="Q12" t="n">
-        <v>243.0591862921679</v>
+        <v>44.35559964169676</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>79.00730927511486</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35570,25 +35570,25 @@
         <v>61.1454568161092</v>
       </c>
       <c r="K13" t="n">
-        <v>24.8546873531421</v>
+        <v>233.2185192579038</v>
       </c>
       <c r="L13" t="n">
         <v>246.8546383131845</v>
       </c>
       <c r="M13" t="n">
-        <v>213.7560604520012</v>
+        <v>246.8546383131845</v>
       </c>
       <c r="N13" t="n">
-        <v>246.8546383131845</v>
+        <v>127.1545112571444</v>
       </c>
       <c r="O13" t="n">
-        <v>37.73022124398529</v>
+        <v>37.73022124398528</v>
       </c>
       <c r="P13" t="n">
-        <v>24.48664327089548</v>
+        <v>24.48664327089546</v>
       </c>
       <c r="Q13" t="n">
-        <v>121.7622827099051</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,16 +35646,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>52.24821598820047</v>
+        <v>52.24821598820043</v>
       </c>
       <c r="K14" t="n">
-        <v>99.0631983687078</v>
+        <v>99.06319836870775</v>
       </c>
       <c r="L14" t="n">
-        <v>137.9928326491119</v>
+        <v>137.9928326491118</v>
       </c>
       <c r="M14" t="n">
-        <v>166.4992936488803</v>
+        <v>166.4992936488802</v>
       </c>
       <c r="N14" t="n">
         <v>171.0808933538394</v>
@@ -35664,13 +35664,13 @@
         <v>156.0915021643675</v>
       </c>
       <c r="P14" t="n">
-        <v>119.1064399868171</v>
+        <v>119.106439986817</v>
       </c>
       <c r="Q14" t="n">
-        <v>69.73694342205934</v>
+        <v>69.73694342205928</v>
       </c>
       <c r="R14" t="n">
-        <v>5.625308890423284</v>
+        <v>5.625308890423256</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>6.713859915095476</v>
       </c>
       <c r="J15" t="n">
-        <v>72.17241746873174</v>
+        <v>215.410196123065</v>
       </c>
       <c r="K15" t="n">
-        <v>72.00174083760137</v>
+        <v>72.00174083760135</v>
       </c>
       <c r="L15" t="n">
-        <v>115.7653565954264</v>
+        <v>115.7653565954263</v>
       </c>
       <c r="M15" t="n">
         <v>143.0114296454938</v>
@@ -35740,13 +35740,13 @@
         <v>152.6909622917711</v>
       </c>
       <c r="O15" t="n">
-        <v>130.5924836785016</v>
+        <v>130.5924836785015</v>
       </c>
       <c r="P15" t="n">
-        <v>246.8546383131845</v>
+        <v>96.90299974375552</v>
       </c>
       <c r="Q15" t="n">
-        <v>44.35559964169677</v>
+        <v>44.35559964169674</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>61.1454568161092</v>
+        <v>61.14545681610919</v>
       </c>
       <c r="K16" t="n">
-        <v>233.2185192579038</v>
+        <v>24.85468735314207</v>
       </c>
       <c r="L16" t="n">
-        <v>44.03963261175304</v>
+        <v>44.03963261175301</v>
       </c>
       <c r="M16" t="n">
-        <v>47.76655173730904</v>
+        <v>246.8546383131844</v>
       </c>
       <c r="N16" t="n">
-        <v>97.56519142296317</v>
+        <v>207.4466490842333</v>
       </c>
       <c r="O16" t="n">
-        <v>246.8546383131845</v>
+        <v>246.8546383131844</v>
       </c>
       <c r="P16" t="n">
-        <v>246.8546383131845</v>
+        <v>24.48664327089545</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>121.7622827099051</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>52.2482159882005</v>
+        <v>52.24821598820047</v>
       </c>
       <c r="K17" t="n">
-        <v>99.06319836870783</v>
+        <v>99.0631983687078</v>
       </c>
       <c r="L17" t="n">
-        <v>137.992832649112</v>
+        <v>137.9928326491119</v>
       </c>
       <c r="M17" t="n">
         <v>166.4992936488803</v>
       </c>
       <c r="N17" t="n">
-        <v>171.0808933538395</v>
+        <v>171.0808933538394</v>
       </c>
       <c r="O17" t="n">
-        <v>156.0915021643676</v>
+        <v>156.0915021643675</v>
       </c>
       <c r="P17" t="n">
         <v>119.1064399868171</v>
       </c>
       <c r="Q17" t="n">
-        <v>69.73694342205937</v>
+        <v>69.73694342205934</v>
       </c>
       <c r="R17" t="n">
-        <v>5.625308890423298</v>
+        <v>5.625308890423284</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>222.1240560381606</v>
+        <v>23.42046938768969</v>
       </c>
       <c r="K18" t="n">
-        <v>72.0017408376014</v>
+        <v>72.00174083760137</v>
       </c>
       <c r="L18" t="n">
         <v>115.7653565954264</v>
       </c>
       <c r="M18" t="n">
-        <v>143.0114296454939</v>
+        <v>143.0114296454938</v>
       </c>
       <c r="N18" t="n">
-        <v>152.6909622917712</v>
+        <v>152.6909622917711</v>
       </c>
       <c r="O18" t="n">
         <v>130.5924836785016</v>
@@ -35983,7 +35983,7 @@
         <v>96.90299974375557</v>
       </c>
       <c r="Q18" t="n">
-        <v>44.35559964169678</v>
+        <v>243.0591862921674</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>61.14545681610921</v>
+        <v>61.1454568161092</v>
       </c>
       <c r="K19" t="n">
-        <v>107.2089808340961</v>
+        <v>233.2185192579038</v>
       </c>
       <c r="L19" t="n">
-        <v>44.03963261175306</v>
+        <v>103.8746027907308</v>
       </c>
       <c r="M19" t="n">
-        <v>246.8546383131845</v>
+        <v>47.76655173730904</v>
       </c>
       <c r="N19" t="n">
-        <v>246.8546383131845</v>
+        <v>246.8546383131844</v>
       </c>
       <c r="O19" t="n">
-        <v>246.8546383131845</v>
+        <v>37.73022124398529</v>
       </c>
       <c r="P19" t="n">
-        <v>24.48664327089549</v>
+        <v>246.8546383131844</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>52.2482159882005</v>
+        <v>52.24821598820043</v>
       </c>
       <c r="K20" t="n">
-        <v>99.06319836870783</v>
+        <v>99.06319836870775</v>
       </c>
       <c r="L20" t="n">
-        <v>137.992832649112</v>
+        <v>137.9928326491118</v>
       </c>
       <c r="M20" t="n">
-        <v>166.4992936488803</v>
+        <v>166.4992936488802</v>
       </c>
       <c r="N20" t="n">
-        <v>171.0808933538395</v>
+        <v>171.0808933538394</v>
       </c>
       <c r="O20" t="n">
-        <v>156.0915021643676</v>
+        <v>156.0915021643675</v>
       </c>
       <c r="P20" t="n">
-        <v>119.1064399868171</v>
+        <v>119.106439986817</v>
       </c>
       <c r="Q20" t="n">
-        <v>69.73694342205937</v>
+        <v>69.73694342205928</v>
       </c>
       <c r="R20" t="n">
-        <v>5.625308890423298</v>
+        <v>5.625308890423256</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>222.1240560381606</v>
+        <v>222.1240560381605</v>
       </c>
       <c r="K21" t="n">
-        <v>72.0017408376014</v>
+        <v>72.00174083760135</v>
       </c>
       <c r="L21" t="n">
-        <v>115.7653565954264</v>
+        <v>115.7653565954263</v>
       </c>
       <c r="M21" t="n">
-        <v>143.0114296454939</v>
+        <v>143.0114296454938</v>
       </c>
       <c r="N21" t="n">
-        <v>152.6909622917712</v>
+        <v>152.6909622917711</v>
       </c>
       <c r="O21" t="n">
-        <v>130.5924836785016</v>
+        <v>130.5924836785015</v>
       </c>
       <c r="P21" t="n">
-        <v>96.90299974375557</v>
+        <v>96.90299974375552</v>
       </c>
       <c r="Q21" t="n">
-        <v>44.35559964169678</v>
+        <v>44.35559964169674</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>61.14545681610921</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>233.2185192579039</v>
+        <v>24.85468735314207</v>
       </c>
       <c r="L22" t="n">
-        <v>179.1217460774521</v>
+        <v>187.5393829088162</v>
       </c>
       <c r="M22" t="n">
-        <v>47.76655173730906</v>
+        <v>246.8546383131844</v>
       </c>
       <c r="N22" t="n">
-        <v>49.84521231655819</v>
+        <v>246.8546383131844</v>
       </c>
       <c r="O22" t="n">
-        <v>37.73022124398531</v>
+        <v>246.8546383131844</v>
       </c>
       <c r="P22" t="n">
-        <v>246.8546383131845</v>
+        <v>24.48664327089545</v>
       </c>
       <c r="Q22" t="n">
-        <v>121.7622827099051</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>2.54989300907711</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J24" t="n">
-        <v>66.23215461126497</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K24" t="n">
-        <v>145.1737298295874</v>
+        <v>295.4930686333068</v>
       </c>
       <c r="L24" t="n">
         <v>214.1541257794519</v>
       </c>
       <c r="M24" t="n">
-        <v>506.0804618258591</v>
+        <v>257.8264825848162</v>
       </c>
       <c r="N24" t="n">
-        <v>506.0804618258591</v>
+        <v>270.5448280395447</v>
       </c>
       <c r="O24" t="n">
-        <v>259.6889308827173</v>
+        <v>238.4057462161409</v>
       </c>
       <c r="P24" t="n">
         <v>183.4326479153363</v>
@@ -36460,7 +36460,7 @@
         <v>102.1983779132225</v>
       </c>
       <c r="R24" t="n">
-        <v>18.28336828375328</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>88.00413230743453</v>
+        <v>22.34618924547858</v>
       </c>
       <c r="K25" t="n">
-        <v>277.3555737492421</v>
+        <v>68.99174184448033</v>
       </c>
       <c r="L25" t="n">
         <v>417.6704839137738</v>
@@ -36527,16 +36527,16 @@
         <v>455.7678973594753</v>
       </c>
       <c r="N25" t="n">
-        <v>107.9797223519805</v>
+        <v>443.3679056323699</v>
       </c>
       <c r="O25" t="n">
-        <v>169.556718718899</v>
+        <v>409.6841833510116</v>
       </c>
       <c r="P25" t="n">
-        <v>333.9661976574595</v>
+        <v>160.0217794650457</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.5734258178642</v>
+        <v>26.02397106449331</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>2.54989300907711</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J27" t="n">
-        <v>167.4228683925619</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K27" t="n">
         <v>145.1737298295874</v>
@@ -36691,13 +36691,13 @@
         <v>238.4057462161409</v>
       </c>
       <c r="P27" t="n">
-        <v>183.4326479153363</v>
+        <v>333.7519867190558</v>
       </c>
       <c r="Q27" t="n">
-        <v>506.0804618258591</v>
+        <v>102.1983779132225</v>
       </c>
       <c r="R27" t="n">
-        <v>18.28336828375328</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>88.00413230743453</v>
+        <v>22.34618924547858</v>
       </c>
       <c r="K28" t="n">
-        <v>277.3555737492421</v>
+        <v>68.99174184448033</v>
       </c>
       <c r="L28" t="n">
         <v>417.6704839137738</v>
       </c>
       <c r="M28" t="n">
-        <v>107.3170392642375</v>
+        <v>455.7678973594753</v>
       </c>
       <c r="N28" t="n">
-        <v>216.3031158151059</v>
+        <v>443.3679056323699</v>
       </c>
       <c r="O28" t="n">
         <v>409.6841833510116</v>
       </c>
       <c r="P28" t="n">
-        <v>333.9661976574595</v>
+        <v>160.0217794650457</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.5734258178642</v>
+        <v>26.02397106449331</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>2.54989300907711</v>
       </c>
       <c r="J30" t="n">
-        <v>312.361855595743</v>
+        <v>167.4228683925619</v>
       </c>
       <c r="K30" t="n">
         <v>145.1737298295874</v>
@@ -36922,7 +36922,7 @@
         <v>257.8264825848162</v>
       </c>
       <c r="N30" t="n">
-        <v>506.0804618258591</v>
+        <v>270.5448280395447</v>
       </c>
       <c r="O30" t="n">
         <v>238.4057462161409</v>
@@ -36931,10 +36931,10 @@
         <v>183.4326479153363</v>
       </c>
       <c r="Q30" t="n">
-        <v>102.1983779132225</v>
+        <v>506.0804618258591</v>
       </c>
       <c r="R30" t="n">
-        <v>41.69083120689426</v>
+        <v>18.28336828375328</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36992,22 +36992,22 @@
         <v>88.00413230743453</v>
       </c>
       <c r="K31" t="n">
-        <v>277.3555737492421</v>
+        <v>68.99174184448033</v>
       </c>
       <c r="L31" t="n">
-        <v>417.6704839137738</v>
+        <v>100.5198665046596</v>
       </c>
       <c r="M31" t="n">
-        <v>107.3170392642375</v>
+        <v>455.7678973594753</v>
       </c>
       <c r="N31" t="n">
-        <v>216.3031158151057</v>
+        <v>443.3679056323699</v>
       </c>
       <c r="O31" t="n">
         <v>409.6841833510116</v>
       </c>
       <c r="P31" t="n">
-        <v>333.9661976574595</v>
+        <v>283.9649990588333</v>
       </c>
       <c r="Q31" t="n">
         <v>153.5734258178642</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>2.54989300907711</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J33" t="n">
-        <v>312.361855595743</v>
+        <v>66.23215461126497</v>
       </c>
       <c r="K33" t="n">
-        <v>315.2585270673446</v>
+        <v>145.1737298295874</v>
       </c>
       <c r="L33" t="n">
         <v>214.1541257794519</v>
@@ -37168,7 +37168,7 @@
         <v>183.4326479153363</v>
       </c>
       <c r="Q33" t="n">
-        <v>102.1983779132225</v>
+        <v>498.6474177014201</v>
       </c>
       <c r="R33" t="n">
         <v>107.1416677554515</v>
@@ -37229,7 +37229,7 @@
         <v>88.00413230743453</v>
       </c>
       <c r="K34" t="n">
-        <v>277.3555737492421</v>
+        <v>68.99174184448033</v>
       </c>
       <c r="L34" t="n">
         <v>417.6704839137738</v>
@@ -37238,16 +37238,16 @@
         <v>455.7678973594753</v>
       </c>
       <c r="N34" t="n">
-        <v>107.9797223519805</v>
+        <v>443.3679056323699</v>
       </c>
       <c r="O34" t="n">
-        <v>169.556718718899</v>
+        <v>409.6841833510116</v>
       </c>
       <c r="P34" t="n">
-        <v>333.9661976574595</v>
+        <v>94.36383640308986</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.5734258178642</v>
+        <v>26.02397106449331</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>2.54989300907711</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J36" t="n">
         <v>312.361855595743</v>
       </c>
       <c r="K36" t="n">
-        <v>145.1737298295874</v>
+        <v>295.4930686333068</v>
       </c>
       <c r="L36" t="n">
         <v>214.1541257794519</v>
@@ -37405,7 +37405,7 @@
         <v>183.4326479153363</v>
       </c>
       <c r="Q36" t="n">
-        <v>272.2831751509793</v>
+        <v>102.1983779132225</v>
       </c>
       <c r="R36" t="n">
         <v>107.1416677554515</v>
@@ -37469,22 +37469,22 @@
         <v>277.3555737492421</v>
       </c>
       <c r="L37" t="n">
-        <v>417.6704839137738</v>
+        <v>233.2371023436505</v>
       </c>
       <c r="M37" t="n">
         <v>455.7678973594753</v>
       </c>
       <c r="N37" t="n">
-        <v>107.9797223519805</v>
+        <v>443.3679056323699</v>
       </c>
       <c r="O37" t="n">
-        <v>169.556718718899</v>
+        <v>409.6841833510116</v>
       </c>
       <c r="P37" t="n">
-        <v>333.9661976574595</v>
+        <v>70.43338606845134</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.5734258178642</v>
+        <v>26.02397106449331</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>2.54989300907711</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J39" t="n">
-        <v>66.23215461126497</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K39" t="n">
-        <v>145.1737298295874</v>
+        <v>295.4930686333068</v>
       </c>
       <c r="L39" t="n">
         <v>214.1541257794519</v>
@@ -37633,7 +37633,7 @@
         <v>257.8264825848162</v>
       </c>
       <c r="N39" t="n">
-        <v>371.7355418208411</v>
+        <v>270.5448280395447</v>
       </c>
       <c r="O39" t="n">
         <v>238.4057462161409</v>
@@ -37642,10 +37642,10 @@
         <v>183.4326479153363</v>
       </c>
       <c r="Q39" t="n">
-        <v>506.0804618258589</v>
+        <v>102.1983779132225</v>
       </c>
       <c r="R39" t="n">
-        <v>18.28336828375328</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37706,7 +37706,7 @@
         <v>68.99174184448033</v>
       </c>
       <c r="L40" t="n">
-        <v>417.6704839137738</v>
+        <v>100.5198665046596</v>
       </c>
       <c r="M40" t="n">
         <v>455.7678973594753</v>
@@ -37718,10 +37718,10 @@
         <v>409.6841833510116</v>
       </c>
       <c r="P40" t="n">
-        <v>70.43338606845134</v>
+        <v>283.9649990588333</v>
       </c>
       <c r="Q40" t="n">
-        <v>49.95442139913136</v>
+        <v>153.5734258178642</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>2.54989300907711</v>
       </c>
       <c r="J42" t="n">
-        <v>167.4228683925614</v>
+        <v>167.4228683925619</v>
       </c>
       <c r="K42" t="n">
         <v>145.1737298295874</v>
@@ -37879,7 +37879,7 @@
         <v>183.4326479153363</v>
       </c>
       <c r="Q42" t="n">
-        <v>506.0804618258589</v>
+        <v>506.0804618258591</v>
       </c>
       <c r="R42" t="n">
         <v>18.28336828375328</v>
@@ -37940,10 +37940,10 @@
         <v>88.00413230743453</v>
       </c>
       <c r="K43" t="n">
-        <v>277.3555737492421</v>
+        <v>68.99174184448033</v>
       </c>
       <c r="L43" t="n">
-        <v>417.6704839137738</v>
+        <v>100.5198665046596</v>
       </c>
       <c r="M43" t="n">
         <v>455.7678973594753</v>
@@ -37952,10 +37952,10 @@
         <v>443.3679056323699</v>
       </c>
       <c r="O43" t="n">
-        <v>91.42685060480903</v>
+        <v>409.6841833510116</v>
       </c>
       <c r="P43" t="n">
-        <v>76.7078824911594</v>
+        <v>283.9649990588333</v>
       </c>
       <c r="Q43" t="n">
         <v>153.5734258178642</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>4.201322183229109</v>
+        <v>4.201322183229138</v>
       </c>
       <c r="J44" t="n">
-        <v>124.128970951338</v>
+        <v>124.1289709513378</v>
       </c>
       <c r="K44" t="n">
-        <v>206.7938168949561</v>
+        <v>206.7938168949562</v>
       </c>
       <c r="L44" t="n">
-        <v>271.6421911238498</v>
+        <v>271.6421911238499</v>
       </c>
       <c r="M44" t="n">
-        <v>315.2099564264878</v>
+        <v>315.209956426488</v>
       </c>
       <c r="N44" t="n">
-        <v>322.1978501274</v>
+        <v>322.1978501274001</v>
       </c>
       <c r="O44" t="n">
-        <v>298.7869592732533</v>
+        <v>298.7869592732534</v>
       </c>
       <c r="P44" t="n">
-        <v>240.8937112531726</v>
+        <v>240.8937112531727</v>
       </c>
       <c r="Q44" t="n">
-        <v>161.1941121877317</v>
+        <v>161.1941121877318</v>
       </c>
       <c r="R44" t="n">
-        <v>58.82526145471049</v>
+        <v>58.82526145471051</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>2.54989300907711</v>
+        <v>22.3153514431149</v>
       </c>
       <c r="J45" t="n">
         <v>312.361855595743</v>
       </c>
       <c r="K45" t="n">
-        <v>145.1737298295874</v>
+        <v>295.4930686333069</v>
       </c>
       <c r="L45" t="n">
         <v>214.1541257794519</v>
       </c>
       <c r="M45" t="n">
-        <v>257.8264825848162</v>
+        <v>257.8264825848163</v>
       </c>
       <c r="N45" t="n">
-        <v>270.5448280395447</v>
+        <v>270.5448280395448</v>
       </c>
       <c r="O45" t="n">
-        <v>238.4057462161409</v>
+        <v>238.405746216141</v>
       </c>
       <c r="P45" t="n">
         <v>183.4326479153363</v>
       </c>
       <c r="Q45" t="n">
-        <v>361.1414746226779</v>
+        <v>102.1983779132225</v>
       </c>
       <c r="R45" t="n">
-        <v>18.28336828375328</v>
+        <v>107.1416677554516</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,25 +38174,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>88.00413230743453</v>
+        <v>22.34618924547859</v>
       </c>
       <c r="K46" t="n">
         <v>277.3555737492421</v>
       </c>
       <c r="L46" t="n">
-        <v>105.6876475902797</v>
+        <v>417.6704839137739</v>
       </c>
       <c r="M46" t="n">
-        <v>455.7678973594753</v>
+        <v>281.2983757893185</v>
       </c>
       <c r="N46" t="n">
-        <v>443.3679056323699</v>
+        <v>107.9797223519805</v>
       </c>
       <c r="O46" t="n">
         <v>409.6841833510116</v>
       </c>
       <c r="P46" t="n">
-        <v>70.43338606845134</v>
+        <v>333.9661976574595</v>
       </c>
       <c r="Q46" t="n">
         <v>153.5734258178642</v>
